--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05367382632994477</v>
+        <v>0.05367382632989859</v>
       </c>
       <c r="D2">
-        <v>0.3612705319307565</v>
+        <v>0.3612705319308418</v>
       </c>
       <c r="E2">
         <v>1.682220760630472</v>
       </c>
       <c r="F2">
-        <v>5.229285776356022</v>
+        <v>5.229285776356164</v>
       </c>
       <c r="G2">
-        <v>4.720400022074131</v>
+        <v>4.720400022074216</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.07073328592157</v>
+        <v>1.070733285921591</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.35443019668358</v>
+        <v>1.354430196683609</v>
       </c>
       <c r="L2">
-        <v>41.02491589840503</v>
+        <v>41.02491589840514</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02963052654337162</v>
+        <v>0.02963052654315845</v>
       </c>
       <c r="D3">
-        <v>0.2537078636773771</v>
+        <v>0.2537078636772918</v>
       </c>
       <c r="E3">
         <v>1.326448429101092</v>
       </c>
       <c r="F3">
-        <v>3.462118328422278</v>
+        <v>3.462118328422321</v>
       </c>
       <c r="G3">
-        <v>3.142608001402877</v>
+        <v>3.142608001402934</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>1.080518824377791</v>
       </c>
       <c r="L3">
-        <v>32.76913231521127</v>
+        <v>32.76913231521138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02065685260722816</v>
+        <v>0.02065685260704697</v>
       </c>
       <c r="D4">
-        <v>0.2071843633009678</v>
+        <v>0.2071843633008683</v>
       </c>
       <c r="E4">
-        <v>1.153361693820983</v>
+        <v>1.153361693820997</v>
       </c>
       <c r="F4">
-        <v>2.740226129663895</v>
+        <v>2.740226129663853</v>
       </c>
       <c r="G4">
-        <v>2.494596283726707</v>
+        <v>2.494596283726693</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9443917157895569</v>
+        <v>0.9443917157895783</v>
       </c>
       <c r="L4">
-        <v>28.65317646643985</v>
+        <v>28.65317646644002</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -532,31 +532,31 @@
         <v>0.01776459864677449</v>
       </c>
       <c r="D5">
-        <v>0.1908339716930243</v>
+        <v>0.1908339716931238</v>
       </c>
       <c r="E5">
-        <v>1.088825505785721</v>
+        <v>1.088825505785735</v>
       </c>
       <c r="F5">
         <v>2.494668628976612</v>
       </c>
       <c r="G5">
-        <v>2.273460771788052</v>
+        <v>2.273460771788066</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6449859737088204</v>
+        <v>0.6449859737088417</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8931863228985577</v>
+        <v>0.8931863228985435</v>
       </c>
       <c r="L5">
-        <v>27.1035505324985</v>
+        <v>27.10355053249856</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01732000307912074</v>
+        <v>0.01732000307892889</v>
       </c>
       <c r="D6">
-        <v>0.1882410541804518</v>
+        <v>0.1882410541806223</v>
       </c>
       <c r="E6">
-        <v>1.078388025272375</v>
+        <v>1.078388025272389</v>
       </c>
       <c r="F6">
-        <v>2.456173800026136</v>
+        <v>2.456173800026178</v>
       </c>
       <c r="G6">
-        <v>2.238754236776217</v>
+        <v>2.238754236776288</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8848824719361446</v>
+        <v>0.8848824719361374</v>
       </c>
       <c r="L6">
-        <v>26.85219481798885</v>
+        <v>26.85219481798873</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02061526323985774</v>
+        <v>0.02061526323966234</v>
       </c>
       <c r="D7">
-        <v>0.2069550211540161</v>
+        <v>0.2069550211538882</v>
       </c>
       <c r="E7">
         <v>1.15247111383205</v>
       </c>
       <c r="F7">
-        <v>2.736749548968419</v>
+        <v>2.736749548968447</v>
       </c>
       <c r="G7">
-        <v>2.491468366661181</v>
+        <v>2.491468366661195</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6877849964280145</v>
+        <v>0.6877849964280216</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9436867291135087</v>
+        <v>0.9436867291135158</v>
       </c>
       <c r="L7">
-        <v>28.63184585854174</v>
+        <v>28.63184585854196</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D8">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E8">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F8">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G8">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L8">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D9">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E9">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F9">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G9">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L9">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D10">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E10">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F10">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G10">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L10">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D11">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E11">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F11">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G11">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L11">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D12">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E12">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F12">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G12">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L12">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D13">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E13">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F13">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G13">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L13">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D14">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E14">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F14">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G14">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L14">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D15">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E15">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F15">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G15">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L15">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D16">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E16">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F16">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G16">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L16">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D17">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E17">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F17">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G17">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L17">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D18">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E18">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F18">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G18">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L18">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D19">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E19">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F19">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G19">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L19">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D20">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E20">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F20">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G20">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L20">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D21">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E21">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F21">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G21">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L21">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D22">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E22">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F22">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G22">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L22">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D23">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E23">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F23">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G23">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L23">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D24">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E24">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F24">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G24">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L24">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04348062410899445</v>
+        <v>0.04348062410902287</v>
       </c>
       <c r="D25">
-        <v>0.3178149740663656</v>
+        <v>0.3178149740662661</v>
       </c>
       <c r="E25">
-        <v>1.54469387259384</v>
+        <v>1.544693872593825</v>
       </c>
       <c r="F25">
-        <v>4.501514541221894</v>
+        <v>4.501514541221752</v>
       </c>
       <c r="G25">
-        <v>4.071750615597153</v>
+        <v>4.071750615597011</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9665286615542001</v>
+        <v>0.966528661554193</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L25">
-        <v>37.86860596128918</v>
+        <v>37.86860596128923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05367382632989859</v>
+        <v>0.05367382632994477</v>
       </c>
       <c r="D2">
-        <v>0.3612705319308418</v>
+        <v>0.3612705319307565</v>
       </c>
       <c r="E2">
         <v>1.682220760630472</v>
       </c>
       <c r="F2">
-        <v>5.229285776356164</v>
+        <v>5.229285776356022</v>
       </c>
       <c r="G2">
-        <v>4.720400022074216</v>
+        <v>4.720400022074131</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.070733285921591</v>
+        <v>1.07073328592157</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.354430196683609</v>
+        <v>1.35443019668358</v>
       </c>
       <c r="L2">
-        <v>41.02491589840514</v>
+        <v>41.02491589840503</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02963052654315845</v>
+        <v>0.02963052654337162</v>
       </c>
       <c r="D3">
-        <v>0.2537078636772918</v>
+        <v>0.2537078636773771</v>
       </c>
       <c r="E3">
         <v>1.326448429101092</v>
       </c>
       <c r="F3">
-        <v>3.462118328422321</v>
+        <v>3.462118328422278</v>
       </c>
       <c r="G3">
-        <v>3.142608001402934</v>
+        <v>3.142608001402877</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>1.080518824377791</v>
       </c>
       <c r="L3">
-        <v>32.76913231521138</v>
+        <v>32.76913231521127</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02065685260704697</v>
+        <v>0.02065685260722816</v>
       </c>
       <c r="D4">
-        <v>0.2071843633008683</v>
+        <v>0.2071843633009678</v>
       </c>
       <c r="E4">
-        <v>1.153361693820997</v>
+        <v>1.153361693820983</v>
       </c>
       <c r="F4">
-        <v>2.740226129663853</v>
+        <v>2.740226129663895</v>
       </c>
       <c r="G4">
-        <v>2.494596283726693</v>
+        <v>2.494596283726707</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9443917157895783</v>
+        <v>0.9443917157895569</v>
       </c>
       <c r="L4">
-        <v>28.65317646644002</v>
+        <v>28.65317646643985</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -532,31 +532,31 @@
         <v>0.01776459864677449</v>
       </c>
       <c r="D5">
-        <v>0.1908339716931238</v>
+        <v>0.1908339716930243</v>
       </c>
       <c r="E5">
-        <v>1.088825505785735</v>
+        <v>1.088825505785721</v>
       </c>
       <c r="F5">
         <v>2.494668628976612</v>
       </c>
       <c r="G5">
-        <v>2.273460771788066</v>
+        <v>2.273460771788052</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6449859737088417</v>
+        <v>0.6449859737088204</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8931863228985435</v>
+        <v>0.8931863228985577</v>
       </c>
       <c r="L5">
-        <v>27.10355053249856</v>
+        <v>27.1035505324985</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01732000307892889</v>
+        <v>0.01732000307912074</v>
       </c>
       <c r="D6">
-        <v>0.1882410541806223</v>
+        <v>0.1882410541804518</v>
       </c>
       <c r="E6">
-        <v>1.078388025272389</v>
+        <v>1.078388025272375</v>
       </c>
       <c r="F6">
-        <v>2.456173800026178</v>
+        <v>2.456173800026136</v>
       </c>
       <c r="G6">
-        <v>2.238754236776288</v>
+        <v>2.238754236776217</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8848824719361374</v>
+        <v>0.8848824719361446</v>
       </c>
       <c r="L6">
-        <v>26.85219481798873</v>
+        <v>26.85219481798885</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02061526323966234</v>
+        <v>0.02061526323985774</v>
       </c>
       <c r="D7">
-        <v>0.2069550211538882</v>
+        <v>0.2069550211540161</v>
       </c>
       <c r="E7">
         <v>1.15247111383205</v>
       </c>
       <c r="F7">
-        <v>2.736749548968447</v>
+        <v>2.736749548968419</v>
       </c>
       <c r="G7">
-        <v>2.491468366661195</v>
+        <v>2.491468366661181</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6877849964280216</v>
+        <v>0.6877849964280145</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9436867291135158</v>
+        <v>0.9436867291135087</v>
       </c>
       <c r="L7">
-        <v>28.63184585854196</v>
+        <v>28.63184585854174</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D8">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E8">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F8">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G8">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L8">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D9">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E9">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F9">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G9">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L9">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D10">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E10">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F10">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G10">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L10">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D11">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E11">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F11">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G11">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L11">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D12">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E12">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F12">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G12">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L12">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D13">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E13">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F13">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G13">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L13">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D14">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E14">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F14">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G14">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L14">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D15">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E15">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F15">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G15">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L15">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D16">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E16">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F16">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G16">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L16">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D17">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E17">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F17">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G17">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L17">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D18">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E18">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F18">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G18">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L18">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D19">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E19">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F19">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G19">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L19">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D20">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E20">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F20">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G20">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L20">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D21">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E21">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F21">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G21">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L21">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D22">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E22">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F22">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G22">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L22">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D23">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E23">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F23">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G23">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L23">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D24">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E24">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F24">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G24">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L24">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04348062410902287</v>
+        <v>0.04348062410899445</v>
       </c>
       <c r="D25">
-        <v>0.3178149740662661</v>
+        <v>0.3178149740663656</v>
       </c>
       <c r="E25">
-        <v>1.544693872593825</v>
+        <v>1.54469387259384</v>
       </c>
       <c r="F25">
-        <v>4.501514541221752</v>
+        <v>4.501514541221894</v>
       </c>
       <c r="G25">
-        <v>4.071750615597011</v>
+        <v>4.071750615597153</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.966528661554193</v>
+        <v>0.9665286615542001</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>1.249529246079405</v>
       </c>
       <c r="L25">
-        <v>37.86860596128923</v>
+        <v>37.86860596128918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05367382632994477</v>
+        <v>0.05360795896776693</v>
       </c>
       <c r="D2">
-        <v>0.3612705319307565</v>
+        <v>0.3597562139974002</v>
       </c>
       <c r="E2">
-        <v>1.682220760630472</v>
+        <v>1.681283094001188</v>
       </c>
       <c r="F2">
-        <v>5.229285776356022</v>
+        <v>5.21141443958885</v>
       </c>
       <c r="G2">
-        <v>4.720400022074131</v>
+        <v>1.644220158604455</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.059595354638518</v>
       </c>
       <c r="I2">
-        <v>1.07073328592157</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.070197505264098</v>
       </c>
       <c r="K2">
-        <v>1.35443019668358</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>41.02491589840503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.353663986231879</v>
+      </c>
+      <c r="M2">
+        <v>41.00239247751995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02963052654337162</v>
+        <v>0.02961732956826069</v>
       </c>
       <c r="D3">
-        <v>0.2537078636773771</v>
+        <v>0.2527969587281547</v>
       </c>
       <c r="E3">
-        <v>1.326448429101092</v>
+        <v>1.326019940619773</v>
       </c>
       <c r="F3">
-        <v>3.462118328422278</v>
+        <v>3.452362831239014</v>
       </c>
       <c r="G3">
-        <v>3.142608001402877</v>
+        <v>1.099503910588695</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.035407326896035</v>
       </c>
       <c r="I3">
-        <v>0.808171856426938</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8080878653829231</v>
       </c>
       <c r="K3">
-        <v>1.080518824377791</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>32.76913231521127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.080152189861025</v>
+      </c>
+      <c r="M3">
+        <v>32.75971449651797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02065685260722816</v>
+        <v>0.02065276053950171</v>
       </c>
       <c r="D4">
-        <v>0.2071843633009678</v>
+        <v>0.2064817529244323</v>
       </c>
       <c r="E4">
-        <v>1.153361693820983</v>
+        <v>1.153058603530198</v>
       </c>
       <c r="F4">
-        <v>2.740226129663895</v>
+        <v>2.733009937905734</v>
       </c>
       <c r="G4">
-        <v>2.494596283726707</v>
+        <v>0.8733574310982704</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.616517695915178</v>
       </c>
       <c r="I4">
-        <v>0.6883885199277486</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6883981043461418</v>
       </c>
       <c r="K4">
-        <v>0.9443917157895569</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.65317646643985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.9441306539772967</v>
+      </c>
+      <c r="M4">
+        <v>28.64721791357096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01776459864677449</v>
+        <v>0.01776247639867634</v>
       </c>
       <c r="D5">
-        <v>0.1908339716930243</v>
+        <v>0.1901990688126034</v>
       </c>
       <c r="E5">
-        <v>1.088825505785721</v>
+        <v>1.088558164971005</v>
       </c>
       <c r="F5">
-        <v>2.494668628976612</v>
+        <v>2.488243646748117</v>
       </c>
       <c r="G5">
-        <v>2.273460771788052</v>
+        <v>0.7957077565832691</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.473986260680064</v>
       </c>
       <c r="I5">
-        <v>0.6449859737088204</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6450185500728907</v>
       </c>
       <c r="K5">
-        <v>0.8931863228985577</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>27.1035505324985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.8929562700545333</v>
+      </c>
+      <c r="M5">
+        <v>27.09858763498124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01732000307912074</v>
+        <v>0.01731814395082409</v>
       </c>
       <c r="D6">
-        <v>0.1882410541804518</v>
+        <v>0.1876166490262392</v>
       </c>
       <c r="E6">
-        <v>1.078388025272375</v>
+        <v>1.078126023161573</v>
       </c>
       <c r="F6">
-        <v>2.456173800026136</v>
+        <v>2.449869868266603</v>
       </c>
       <c r="G6">
-        <v>2.238754236776217</v>
+        <v>0.7834939989554925</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.451640826976416</v>
       </c>
       <c r="I6">
-        <v>0.6380292970579831</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6380651007308487</v>
       </c>
       <c r="K6">
-        <v>0.8848824719361446</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>26.85219481798885</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.8846570895373915</v>
+      </c>
+      <c r="M6">
+        <v>26.84738040766416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02061526323985774</v>
+        <v>0.02061120270080963</v>
       </c>
       <c r="D7">
-        <v>0.2069550211540161</v>
+        <v>0.2062533789567738</v>
       </c>
       <c r="E7">
-        <v>1.15247111383205</v>
+        <v>1.152168551204568</v>
       </c>
       <c r="F7">
-        <v>2.736749548968419</v>
+        <v>2.729544795793387</v>
       </c>
       <c r="G7">
-        <v>2.491468366661181</v>
+        <v>0.8722610302535543</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.61449987510926</v>
       </c>
       <c r="I7">
-        <v>0.6877849964280145</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6877949358966191</v>
       </c>
       <c r="K7">
-        <v>0.9436867291135087</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.63184585854174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.9434261217218705</v>
+      </c>
+      <c r="M7">
+        <v>28.62590200057855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D8">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E8">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F8">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G8">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I8">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K8">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M8">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D9">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E9">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F9">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G9">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I9">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K9">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M9">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D10">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E10">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F10">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G10">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I10">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K10">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M10">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D11">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E11">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F11">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G11">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I11">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K11">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M11">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D12">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E12">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F12">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G12">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I12">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K12">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M12">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D13">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E13">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F13">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G13">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I13">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K13">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M13">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D14">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E14">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F14">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G14">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I14">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K14">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M14">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D15">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E15">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F15">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G15">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I15">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K15">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M15">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D16">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E16">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F16">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G16">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I16">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K16">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M16">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D17">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E17">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F17">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G17">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I17">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K17">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M17">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D18">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E18">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F18">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G18">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I18">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K18">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M18">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D19">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E19">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F19">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G19">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I19">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K19">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M19">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D20">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E20">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F20">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G20">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I20">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K20">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M20">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D21">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E21">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F21">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G21">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I21">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K21">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M21">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D22">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E22">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F22">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G22">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I22">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K22">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M22">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D23">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E23">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F23">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G23">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I23">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K23">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M23">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D24">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E24">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F24">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G24">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I24">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K24">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>37.86860596128918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M24">
+        <v>37.8524669009538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04348062410899445</v>
+        <v>0.04344301977876697</v>
       </c>
       <c r="D25">
-        <v>0.3178149740663656</v>
+        <v>0.3165698707184532</v>
       </c>
       <c r="E25">
-        <v>1.54469387259384</v>
+        <v>1.544010953586536</v>
       </c>
       <c r="F25">
-        <v>4.501514541221894</v>
+        <v>4.487391578107889</v>
       </c>
       <c r="G25">
-        <v>4.071750615597153</v>
+        <v>1.421104402786526</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.638070765311681</v>
       </c>
       <c r="I25">
-        <v>0.9665286615542001</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.9662262345146431</v>
       </c>
       <c r="K25">
-        <v>1.249529246079405</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>37.86860596128918</v>
+        <v>1.248958864080109</v>
+      </c>
+      <c r="M25">
+        <v>37.8524669009538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05360795896776693</v>
+        <v>0.1907521886298724</v>
       </c>
       <c r="D2">
-        <v>0.3597562139974002</v>
+        <v>0.3700076290468814</v>
       </c>
       <c r="E2">
-        <v>1.681283094001188</v>
+        <v>0.03301300819940245</v>
       </c>
       <c r="F2">
-        <v>5.21141443958885</v>
+        <v>14.98861602673963</v>
       </c>
       <c r="G2">
-        <v>1.644220158604455</v>
+        <v>0.0006901613161477946</v>
       </c>
       <c r="H2">
-        <v>3.059595354638518</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.070197505264098</v>
+        <v>0.4423812931907349</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.353663986231879</v>
+        <v>0.01959222765270319</v>
       </c>
       <c r="M2">
-        <v>41.00239247751995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>7.663121664606024</v>
+      </c>
+      <c r="O2">
+        <v>12.49803678665072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02961732956826069</v>
+        <v>0.1711556838401691</v>
       </c>
       <c r="D3">
-        <v>0.2527969587281547</v>
+        <v>0.3025953175314839</v>
       </c>
       <c r="E3">
-        <v>1.326019940619773</v>
+        <v>0.03256141170902538</v>
       </c>
       <c r="F3">
-        <v>3.452362831239014</v>
+        <v>12.74272307709396</v>
       </c>
       <c r="G3">
-        <v>1.099503910588695</v>
+        <v>0.0007316937456172329</v>
       </c>
       <c r="H3">
-        <v>2.035407326896035</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.8080878653829231</v>
+        <v>0.3862251586397178</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.080152189861025</v>
+        <v>0.02016067830070867</v>
       </c>
       <c r="M3">
-        <v>32.75971449651797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="O3">
+        <v>10.59391071023578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02065276053950171</v>
+        <v>0.1608215956715924</v>
       </c>
       <c r="D4">
-        <v>0.2064817529244323</v>
+        <v>0.2659732419416372</v>
       </c>
       <c r="E4">
-        <v>1.153058603530198</v>
+        <v>0.03241421987523019</v>
       </c>
       <c r="F4">
-        <v>2.733009937905734</v>
+        <v>11.53203597451545</v>
       </c>
       <c r="G4">
-        <v>0.8733574310982704</v>
+        <v>0.0007559156831815247</v>
       </c>
       <c r="H4">
-        <v>1.616517695915178</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6883981043461418</v>
+        <v>0.3563267156062011</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9441306539772967</v>
+        <v>0.02050969035949723</v>
       </c>
       <c r="M4">
-        <v>28.64721791357096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="O4">
+        <v>9.566802475993256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01776247639867634</v>
+        <v>0.1569251982764683</v>
       </c>
       <c r="D5">
-        <v>0.1901990688126034</v>
+        <v>0.2518963457411587</v>
       </c>
       <c r="E5">
-        <v>1.088558164971005</v>
+        <v>0.03238049515466557</v>
       </c>
       <c r="F5">
-        <v>2.488243646748117</v>
+        <v>11.06915991989854</v>
       </c>
       <c r="G5">
-        <v>0.7957077565832691</v>
+        <v>0.0007656001553865245</v>
       </c>
       <c r="H5">
-        <v>1.473986260680064</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6450185500728907</v>
+        <v>0.3449803720940281</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8929562700545333</v>
+        <v>0.02065268983667767</v>
       </c>
       <c r="M5">
-        <v>27.09858763498124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5.958052239810513</v>
+      </c>
+      <c r="O5">
+        <v>9.173944706915819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01731814395082409</v>
+        <v>0.1562947676873279</v>
       </c>
       <c r="D6">
-        <v>0.1876166490262392</v>
+        <v>0.2496023868529278</v>
       </c>
       <c r="E6">
-        <v>1.078126023161573</v>
+        <v>0.03237633946910634</v>
       </c>
       <c r="F6">
-        <v>2.449869868266603</v>
+        <v>10.99388316778646</v>
       </c>
       <c r="G6">
-        <v>0.7834939989554925</v>
+        <v>0.0007671999667110411</v>
       </c>
       <c r="H6">
-        <v>1.451640826976416</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6380651007308487</v>
+        <v>0.3431400497525345</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8846570895373915</v>
+        <v>0.02067649961219065</v>
       </c>
       <c r="M6">
-        <v>26.84738040766416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5.919936152110552</v>
+      </c>
+      <c r="O6">
+        <v>9.110044632877106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02061120270080963</v>
+        <v>0.1607678880970127</v>
       </c>
       <c r="D7">
-        <v>0.2062533789567738</v>
+        <v>0.2657803271757047</v>
       </c>
       <c r="E7">
-        <v>1.152168551204568</v>
+        <v>0.0324136653948166</v>
       </c>
       <c r="F7">
-        <v>2.729544795793387</v>
+        <v>11.52568215698653</v>
       </c>
       <c r="G7">
-        <v>0.8722610302535543</v>
+        <v>0.0007560469062879897</v>
       </c>
       <c r="H7">
-        <v>1.61449987510926</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6877949358966191</v>
+        <v>0.3561706263433564</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.9434261217218705</v>
+        <v>0.02051161492221798</v>
       </c>
       <c r="M7">
-        <v>28.62590200057855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="O7">
+        <v>9.561410487813561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04344301977876697</v>
+        <v>0.1835573635196397</v>
       </c>
       <c r="D8">
-        <v>0.3165698707184532</v>
+        <v>0.3455043047410697</v>
       </c>
       <c r="E8">
-        <v>1.544010953586536</v>
+        <v>0.03282539502862747</v>
       </c>
       <c r="F8">
-        <v>4.487391578107889</v>
+        <v>14.17027476582922</v>
       </c>
       <c r="G8">
-        <v>1.421104402786526</v>
+        <v>0.0007048505225389609</v>
       </c>
       <c r="H8">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.9662262345146431</v>
+        <v>0.4218276221085233</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.248958864080109</v>
+        <v>0.0197888003900859</v>
       </c>
       <c r="M8">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O8">
+        <v>11.80437079213772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D9">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E9">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F9">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G9">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H9">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M9">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O9">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D10">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E10">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F10">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G10">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H10">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M10">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O10">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D11">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E11">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F11">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G11">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H11">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M11">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O11">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D12">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E12">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F12">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G12">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H12">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M12">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O12">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D13">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E13">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F13">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G13">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H13">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M13">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O13">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D14">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E14">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F14">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G14">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H14">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M14">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O14">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D15">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E15">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F15">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G15">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H15">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M15">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O15">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D16">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E16">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F16">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G16">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H16">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M16">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O16">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D17">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E17">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F17">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G17">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H17">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M17">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O17">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D18">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E18">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F18">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G18">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H18">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M18">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O18">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D19">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E19">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F19">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G19">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H19">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M19">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O19">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D20">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E20">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F20">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G20">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H20">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M20">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O20">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D21">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E21">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F21">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G21">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H21">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M21">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O21">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D22">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E22">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F22">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G22">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H22">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M22">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O22">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D23">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E23">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F23">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G23">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H23">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M23">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O23">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D24">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E24">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F24">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G24">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H24">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M24">
-        <v>37.8524669009538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O24">
+        <v>18.33418695505986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04344301977876697</v>
+        <v>0.2528993305136424</v>
       </c>
       <c r="D25">
-        <v>0.3165698707184532</v>
+        <v>0.5754050291445481</v>
       </c>
       <c r="E25">
-        <v>1.544010953586536</v>
+        <v>0.0353001751604225</v>
       </c>
       <c r="F25">
-        <v>4.487391578107889</v>
+        <v>21.87714823111764</v>
       </c>
       <c r="G25">
-        <v>1.421104402786526</v>
+        <v>0.0005807318769801924</v>
       </c>
       <c r="H25">
-        <v>2.638070765311681</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9662262345146431</v>
+        <v>0.6185050995581776</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.248958864080109</v>
+        <v>0.01830662848579578</v>
       </c>
       <c r="M25">
-        <v>37.8524669009538</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O25">
+        <v>18.33418695505986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1907521886298724</v>
+        <v>0.1122888821161041</v>
       </c>
       <c r="D2">
-        <v>0.3700076290468814</v>
+        <v>0.07690030577361284</v>
       </c>
       <c r="E2">
-        <v>0.03301300819940245</v>
+        <v>0.07912628820665546</v>
       </c>
       <c r="F2">
-        <v>14.98861602673963</v>
+        <v>1.31570455011925</v>
       </c>
       <c r="G2">
-        <v>0.0006901613161477946</v>
+        <v>1.081719305451145</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6230489430370483</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.9400865392417757</v>
       </c>
       <c r="J2">
-        <v>0.4423812931907349</v>
+        <v>0.09994857198991269</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01959222765270319</v>
+        <v>0.1029259134536531</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.663121664606024</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.49803678665072</v>
+        <v>3.548419648052572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1711556838401691</v>
+        <v>0.104851551758955</v>
       </c>
       <c r="D3">
-        <v>0.3025953175314839</v>
+        <v>0.07306151383014736</v>
       </c>
       <c r="E3">
-        <v>0.03256141170902538</v>
+        <v>0.07431660011820895</v>
       </c>
       <c r="F3">
-        <v>12.74272307709396</v>
+        <v>1.185783470661065</v>
       </c>
       <c r="G3">
-        <v>0.0007316937456172329</v>
+        <v>0.9602896322167425</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5712815492702958</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8460437425007612</v>
       </c>
       <c r="J3">
-        <v>0.3862251586397178</v>
+        <v>0.09316944467241228</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02016067830070867</v>
+        <v>0.09702394730894781</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.59391071023578</v>
+        <v>3.182193316393835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1608215956715924</v>
+        <v>0.1004136930158239</v>
       </c>
       <c r="D4">
-        <v>0.2659732419416372</v>
+        <v>0.07078550761729474</v>
       </c>
       <c r="E4">
-        <v>0.03241421987523019</v>
+        <v>0.07145714766012645</v>
       </c>
       <c r="F4">
-        <v>11.53203597451545</v>
+        <v>1.107684170545951</v>
       </c>
       <c r="G4">
-        <v>0.0007559156831815247</v>
+        <v>0.8870862973718516</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5403009492389685</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.7894981153136484</v>
       </c>
       <c r="J4">
-        <v>0.3563267156062011</v>
+        <v>0.08913368590042126</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02050969035949723</v>
+        <v>0.09352453137945105</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.566802475993256</v>
+        <v>2.961871108490016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1569251982764683</v>
+        <v>0.09863583676281706</v>
       </c>
       <c r="D5">
-        <v>0.2518963457411587</v>
+        <v>0.06987748812395722</v>
       </c>
       <c r="E5">
-        <v>0.03238049515466557</v>
+        <v>0.07031420100915398</v>
       </c>
       <c r="F5">
-        <v>11.06915991989854</v>
+        <v>1.076245764138747</v>
       </c>
       <c r="G5">
-        <v>0.0007656001553865245</v>
+        <v>0.8575655972950216</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5278645121643848</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7667324287384645</v>
       </c>
       <c r="J5">
-        <v>0.3449803720940281</v>
+        <v>0.08751902019443492</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02065268983667767</v>
+        <v>0.09212810827443008</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810513</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.173944706915819</v>
+        <v>2.873136365814787</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1562947676873279</v>
+        <v>0.09834242425205986</v>
       </c>
       <c r="D6">
-        <v>0.2496023868529278</v>
+        <v>0.06972786272754661</v>
       </c>
       <c r="E6">
-        <v>0.03237633946910634</v>
+        <v>0.07012572711635201</v>
       </c>
       <c r="F6">
-        <v>10.99388316778646</v>
+        <v>1.071047929961594</v>
       </c>
       <c r="G6">
-        <v>0.0007671999667110411</v>
+        <v>0.8526815893796851</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5258104382675697</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.7629682691303969</v>
       </c>
       <c r="J6">
-        <v>0.3431400497525345</v>
+        <v>0.08725266071176918</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.02067649961219065</v>
+        <v>0.09189797515564635</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110552</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.110044632877106</v>
+        <v>2.858462708597699</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1607678880970127</v>
+        <v>0.1003895945443531</v>
       </c>
       <c r="D7">
-        <v>0.2657803271757047</v>
+        <v>0.07077318406757627</v>
       </c>
       <c r="E7">
-        <v>0.0324136653948166</v>
+        <v>0.07144164479201365</v>
       </c>
       <c r="F7">
-        <v>11.52568215698653</v>
+        <v>1.107258653581681</v>
       </c>
       <c r="G7">
-        <v>0.0007560469062879897</v>
+        <v>0.886686953646219</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5401324820863493</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.7891899978245434</v>
       </c>
       <c r="J7">
-        <v>0.3561706263433564</v>
+        <v>0.08911179117498591</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02051161492221798</v>
+        <v>0.0935055809438694</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.561410487813561</v>
+        <v>2.960670275997387</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1835573635196397</v>
+        <v>0.1096966924940261</v>
       </c>
       <c r="D8">
-        <v>0.3455043047410697</v>
+        <v>0.07555931251678061</v>
       </c>
       <c r="E8">
-        <v>0.03282539502862747</v>
+        <v>0.07744767347411496</v>
       </c>
       <c r="F8">
-        <v>14.17027476582922</v>
+        <v>1.270540106642898</v>
       </c>
       <c r="G8">
-        <v>0.0007048505225389609</v>
+        <v>1.039550190200131</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6050238302057664</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.9073972918589206</v>
       </c>
       <c r="J8">
-        <v>0.4218276221085233</v>
+        <v>0.09758365569412319</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0197888003900859</v>
+        <v>0.100864057020992</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.80437079213772</v>
+        <v>3.421143729983385</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2528993305136424</v>
+        <v>0.1290540885373304</v>
       </c>
       <c r="D9">
-        <v>0.5754050291445481</v>
+        <v>0.0856316540607196</v>
       </c>
       <c r="E9">
-        <v>0.0353001751604225</v>
+        <v>0.0900303757101284</v>
       </c>
       <c r="F9">
-        <v>21.87714823111764</v>
+        <v>1.605610492425569</v>
       </c>
       <c r="G9">
-        <v>0.0005807318769801924</v>
+        <v>1.351549030635908</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.739341453431166</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.149862167601597</v>
       </c>
       <c r="J9">
-        <v>0.6185050995581776</v>
+        <v>0.115294775284724</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01830662848579578</v>
+        <v>0.1163622808910318</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.33418695505986</v>
+        <v>4.364741184859383</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2528993305136424</v>
+        <v>0.1440781865263006</v>
       </c>
       <c r="D10">
-        <v>0.5754050291445481</v>
+        <v>0.09351630819480761</v>
       </c>
       <c r="E10">
-        <v>0.0353001751604225</v>
+        <v>0.0998578302706683</v>
       </c>
       <c r="F10">
-        <v>21.87714823111764</v>
+        <v>1.863274627250107</v>
       </c>
       <c r="G10">
-        <v>0.0005807318769801924</v>
+        <v>1.590472241195329</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8433597280125866</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.336254968095545</v>
       </c>
       <c r="J10">
-        <v>0.6185050995581776</v>
+        <v>0.1291164761897363</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.01830662848579578</v>
+        <v>0.1285222634306962</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.33418695505986</v>
+        <v>5.089659024545085</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2528993305136424</v>
+        <v>0.1511180875008336</v>
       </c>
       <c r="D11">
-        <v>0.5754050291445481</v>
+        <v>0.0972243087123843</v>
       </c>
       <c r="E11">
-        <v>0.0353001751604225</v>
+        <v>0.1044775171239216</v>
       </c>
       <c r="F11">
-        <v>21.87714823111764</v>
+        <v>1.983575941216088</v>
       </c>
       <c r="G11">
-        <v>0.0005807318769801924</v>
+        <v>1.701815778802853</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8920893317385605</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.423269286519243</v>
       </c>
       <c r="J11">
-        <v>0.6185050995581776</v>
+        <v>0.1356141410292651</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01830662848579578</v>
+        <v>0.1342517679342023</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.33418695505986</v>
+        <v>5.427997976744678</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2528993305136424</v>
+        <v>0.1538162172671917</v>
       </c>
       <c r="D12">
-        <v>0.5754050291445481</v>
+        <v>0.0986472859198102</v>
       </c>
       <c r="E12">
-        <v>0.0353001751604225</v>
+        <v>0.1062503326362787</v>
       </c>
       <c r="F12">
-        <v>21.87714823111764</v>
+        <v>2.029628458515788</v>
       </c>
       <c r="G12">
-        <v>0.0005807318769801924</v>
+        <v>1.744410159440491</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.9107676576419692</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.456577809854338</v>
       </c>
       <c r="J12">
-        <v>0.6185050995581776</v>
+        <v>0.1381079407309045</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01830662848579578</v>
+        <v>0.1364525206554319</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.33418695505986</v>
+        <v>5.557503203838792</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2528993305136424</v>
+        <v>0.1532336453876155</v>
       </c>
       <c r="D13">
-        <v>0.5754050291445481</v>
+        <v>0.09833996091888508</v>
       </c>
       <c r="E13">
-        <v>0.0353001751604225</v>
+        <v>0.1058674489939122</v>
       </c>
       <c r="F13">
-        <v>21.87714823111764</v>
+        <v>2.019687227724091</v>
       </c>
       <c r="G13">
-        <v>0.0005807318769801924</v>
+        <v>1.73521670090156</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.9067345367438122</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.449387649722283</v>
       </c>
       <c r="J13">
-        <v>0.6185050995581776</v>
+        <v>0.1375693247879042</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.01830662848579578</v>
+        <v>0.1359771205640286</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.33418695505986</v>
+        <v>5.529547847205038</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2528993305136424</v>
+        <v>0.1513394009816693</v>
       </c>
       <c r="D14">
-        <v>0.5754050291445481</v>
+        <v>0.09734099191592094</v>
       </c>
       <c r="E14">
-        <v>0.0353001751604225</v>
+        <v>0.104622885911656</v>
       </c>
       <c r="F14">
-        <v>21.87714823111764</v>
+        <v>1.987354428980751</v>
       </c>
       <c r="G14">
-        <v>0.0005807318769801924</v>
+        <v>1.705311109801329</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8936213534550177</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.426002190206916</v>
       </c>
       <c r="J14">
-        <v>0.6185050995581776</v>
+        <v>0.1358186220533923</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.01830662848579578</v>
+        <v>0.1344321855631634</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.33418695505986</v>
+        <v>5.438623805962095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2528993305136424</v>
+        <v>0.1501834095220147</v>
       </c>
       <c r="D15">
-        <v>0.5754050291445481</v>
+        <v>0.09673159141662069</v>
       </c>
       <c r="E15">
-        <v>0.0353001751604225</v>
+        <v>0.1038636698093214</v>
       </c>
       <c r="F15">
-        <v>21.87714823111764</v>
+        <v>1.967616031647012</v>
       </c>
       <c r="G15">
-        <v>0.0005807318769801924</v>
+        <v>1.687050730298637</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8856192182974212</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.411725751583376</v>
       </c>
       <c r="J15">
-        <v>0.6185050995581776</v>
+        <v>0.134750694917301</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.01830662848579578</v>
+        <v>0.1334900030508024</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.33418695505986</v>
+        <v>5.383115109068001</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2528993305136424</v>
+        <v>0.1436224741819103</v>
       </c>
       <c r="D16">
-        <v>0.5754050291445481</v>
+        <v>0.09327653871026342</v>
       </c>
       <c r="E16">
-        <v>0.0353001751604225</v>
+        <v>0.09955909057100243</v>
       </c>
       <c r="F16">
-        <v>21.87714823111764</v>
+        <v>1.855479220650892</v>
       </c>
       <c r="G16">
-        <v>0.0005807318769801924</v>
+        <v>1.583253223351448</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8402054135068227</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.330616321515294</v>
       </c>
       <c r="J16">
-        <v>0.6185050995581776</v>
+        <v>0.1286963221297768</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.01830662848579578</v>
+        <v>0.1281520307526947</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>18.33418695505986</v>
+        <v>5.067732859282444</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2528993305136424</v>
+        <v>0.1396520330734461</v>
       </c>
       <c r="D17">
-        <v>0.5754050291445481</v>
+        <v>0.09118899126234936</v>
       </c>
       <c r="E17">
-        <v>0.0353001751604225</v>
+        <v>0.09695793466038438</v>
       </c>
       <c r="F17">
-        <v>21.87714823111764</v>
+        <v>1.787514188954859</v>
       </c>
       <c r="G17">
-        <v>0.0005807318769801924</v>
+        <v>1.520290689516628</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.8127223847936591</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.281454027394872</v>
       </c>
       <c r="J17">
-        <v>0.6185050995581776</v>
+        <v>0.125038070141585</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.01830662848579578</v>
+        <v>0.1249298592417389</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>18.33418695505986</v>
+        <v>4.8765545856931</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2528993305136424</v>
+        <v>0.1373874934458854</v>
       </c>
       <c r="D18">
-        <v>0.5754050291445481</v>
+        <v>0.08999960964563769</v>
       </c>
       <c r="E18">
-        <v>0.0353001751604225</v>
+        <v>0.09547572632967771</v>
       </c>
       <c r="F18">
-        <v>21.87714823111764</v>
+        <v>1.74870978789582</v>
       </c>
       <c r="G18">
-        <v>0.0005807318769801924</v>
+        <v>1.484323136773611</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7970462363080912</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.25338395603795</v>
       </c>
       <c r="J18">
-        <v>0.6185050995581776</v>
+        <v>0.1229535179646035</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.01830662848579578</v>
+        <v>0.1230950034994862</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>18.33418695505986</v>
+        <v>4.76739076000905</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2528993305136424</v>
+        <v>0.1366239688365312</v>
       </c>
       <c r="D19">
-        <v>0.5754050291445481</v>
+        <v>0.08959880874855486</v>
       </c>
       <c r="E19">
-        <v>0.0353001751604225</v>
+        <v>0.09497620658097716</v>
       </c>
       <c r="F19">
-        <v>21.87714823111764</v>
+        <v>1.735619088888782</v>
       </c>
       <c r="G19">
-        <v>0.0005807318769801924</v>
+        <v>1.472186109607605</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7917604680336012</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.243914311065168</v>
       </c>
       <c r="J19">
-        <v>0.6185050995581776</v>
+        <v>0.1222509978284165</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.01830662848579578</v>
+        <v>0.1224768446024171</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.33418695505986</v>
+        <v>4.730562231343072</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2528993305136424</v>
+        <v>0.1400726918809738</v>
       </c>
       <c r="D20">
-        <v>0.5754050291445481</v>
+        <v>0.09141003280276294</v>
       </c>
       <c r="E20">
-        <v>0.0353001751604225</v>
+        <v>0.09723337881632332</v>
       </c>
       <c r="F20">
-        <v>21.87714823111764</v>
+        <v>1.794719080915684</v>
       </c>
       <c r="G20">
-        <v>0.0005807318769801924</v>
+        <v>1.526967270949939</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.8156342474576661</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.286665769149764</v>
       </c>
       <c r="J20">
-        <v>0.6185050995581776</v>
+        <v>0.1254254497571168</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.01830662848579578</v>
+        <v>0.1252709366223002</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>18.33418695505986</v>
+        <v>4.896822313794246</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2528993305136424</v>
+        <v>0.1518948876681208</v>
       </c>
       <c r="D21">
-        <v>0.5754050291445481</v>
+        <v>0.09763389031633807</v>
       </c>
       <c r="E21">
-        <v>0.0353001751604225</v>
+        <v>0.1049877913506663</v>
       </c>
       <c r="F21">
-        <v>21.87714823111764</v>
+        <v>1.996837422120734</v>
       </c>
       <c r="G21">
-        <v>0.0005807318769801924</v>
+        <v>1.71408299709762</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8974667039329347</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.432861025362172</v>
       </c>
       <c r="J21">
-        <v>0.6185050995581776</v>
+        <v>0.1363319170704358</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.01830662848579578</v>
+        <v>0.1348851036623628</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.33418695505986</v>
+        <v>5.465291578067422</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2528993305136424</v>
+        <v>0.1598109195063131</v>
       </c>
       <c r="D22">
-        <v>0.5754050291445481</v>
+        <v>0.1018120775810658</v>
       </c>
       <c r="E22">
-        <v>0.0353001751604225</v>
+        <v>0.1101934269313425</v>
       </c>
       <c r="F22">
-        <v>21.87714823111764</v>
+        <v>2.131858444109866</v>
       </c>
       <c r="G22">
-        <v>0.0005807318769801924</v>
+        <v>1.838912118160493</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.9522751874529831</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.530515612914684</v>
       </c>
       <c r="J22">
-        <v>0.6185050995581776</v>
+        <v>0.143655495649007</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.01830662848579578</v>
+        <v>0.1413512761137028</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.33418695505986</v>
+        <v>5.844963964747137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2528993305136424</v>
+        <v>0.1555676758847113</v>
       </c>
       <c r="D23">
-        <v>0.5754050291445481</v>
+        <v>0.09957149218404027</v>
       </c>
       <c r="E23">
-        <v>0.0353001751604225</v>
+        <v>0.1074017794622115</v>
       </c>
       <c r="F23">
-        <v>21.87714823111764</v>
+        <v>2.059508832484099</v>
       </c>
       <c r="G23">
-        <v>0.0005807318769801924</v>
+        <v>1.772038858350243</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.9228935273666536</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.478189098104821</v>
       </c>
       <c r="J23">
-        <v>0.6185050995581776</v>
+        <v>0.1397277859171808</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.01830662848579578</v>
+        <v>0.1378824957001399</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.33418695505986</v>
+        <v>5.641526862333478</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2528993305136424</v>
+        <v>0.1398824557995084</v>
       </c>
       <c r="D24">
-        <v>0.5754050291445481</v>
+        <v>0.09131006645850448</v>
       </c>
       <c r="E24">
-        <v>0.0353001751604225</v>
+        <v>0.09710880945108258</v>
       </c>
       <c r="F24">
-        <v>21.87714823111764</v>
+        <v>1.7914609134546</v>
       </c>
       <c r="G24">
-        <v>0.0005807318769801924</v>
+        <v>1.523948074348823</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.8143174091392495</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.284308939338544</v>
       </c>
       <c r="J24">
-        <v>0.6185050995581776</v>
+        <v>0.1252502576465346</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.01830662848579578</v>
+        <v>0.1251166808745126</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>18.33418695505986</v>
+        <v>4.887656958106618</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2528993305136424</v>
+        <v>0.1236863284151042</v>
       </c>
       <c r="D25">
-        <v>0.5754050291445481</v>
+        <v>0.08282677994886711</v>
       </c>
       <c r="E25">
-        <v>0.0353001751604225</v>
+        <v>0.08653113980596672</v>
       </c>
       <c r="F25">
-        <v>21.87714823111764</v>
+        <v>1.513134036364278</v>
       </c>
       <c r="G25">
-        <v>0.0005807318769801924</v>
+        <v>1.26561464335748</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7021473085824539</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.082954729909503</v>
       </c>
       <c r="J25">
-        <v>0.6185050995581776</v>
+        <v>0.1103721084549321</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.01830662848579578</v>
+        <v>0.1120431793281043</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.33418695505986</v>
+        <v>4.10444564456094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1122888821161041</v>
+        <v>0.2097167003751395</v>
       </c>
       <c r="D2">
-        <v>0.07690030577361284</v>
+        <v>0.1683836165379375</v>
       </c>
       <c r="E2">
-        <v>0.07912628820665546</v>
+        <v>0.1572518775516691</v>
       </c>
       <c r="F2">
-        <v>1.31570455011925</v>
+        <v>1.585520969950849</v>
       </c>
       <c r="G2">
-        <v>1.081719305451145</v>
+        <v>0.9885403027152648</v>
       </c>
       <c r="H2">
-        <v>0.6230489430370483</v>
+        <v>0.9588152100885736</v>
       </c>
       <c r="I2">
-        <v>0.9400865392417757</v>
+        <v>1.107378677071821</v>
       </c>
       <c r="J2">
-        <v>0.09994857198991269</v>
+        <v>0.1853140390250303</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1029259134536531</v>
+        <v>0.2123279231335857</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.548419648052572</v>
+        <v>3.943819789077736</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.104851551758955</v>
+        <v>0.2089922281128764</v>
       </c>
       <c r="D3">
-        <v>0.07306151383014736</v>
+        <v>0.1682660490980226</v>
       </c>
       <c r="E3">
-        <v>0.07431660011820895</v>
+        <v>0.1569064231002919</v>
       </c>
       <c r="F3">
-        <v>1.185783470661065</v>
+        <v>1.562029610908425</v>
       </c>
       <c r="G3">
-        <v>0.9602896322167425</v>
+        <v>0.9632484458721677</v>
       </c>
       <c r="H3">
-        <v>0.5712815492702958</v>
+        <v>0.9514223883856232</v>
       </c>
       <c r="I3">
-        <v>0.8460437425007612</v>
+        <v>1.090128063910129</v>
       </c>
       <c r="J3">
-        <v>0.09316944467241228</v>
+        <v>0.1846786843179231</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09702394730894781</v>
+        <v>0.2120131430796448</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.182193316393835</v>
+        <v>3.87433464924348</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1004136930158239</v>
+        <v>0.2086295553522319</v>
       </c>
       <c r="D4">
-        <v>0.07078550761729474</v>
+        <v>0.1682508060830017</v>
       </c>
       <c r="E4">
-        <v>0.07145714766012645</v>
+        <v>0.1567542179741217</v>
       </c>
       <c r="F4">
-        <v>1.107684170545951</v>
+        <v>1.5484108024786</v>
       </c>
       <c r="G4">
-        <v>0.8870862973718516</v>
+        <v>0.9482747664937108</v>
       </c>
       <c r="H4">
-        <v>0.5403009492389685</v>
+        <v>0.9473179711940389</v>
       </c>
       <c r="I4">
-        <v>0.7894981153136484</v>
+        <v>1.080104027687696</v>
       </c>
       <c r="J4">
-        <v>0.08913368590042126</v>
+        <v>0.1843640825306352</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09352453137945105</v>
+        <v>0.2118993815216257</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.961871108490016</v>
+        <v>3.833743338436676</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09863583676281706</v>
+        <v>0.2085024639902073</v>
       </c>
       <c r="D5">
-        <v>0.06987748812395722</v>
+        <v>0.1682589471707132</v>
       </c>
       <c r="E5">
-        <v>0.07031420100915398</v>
+        <v>0.1567072846196673</v>
       </c>
       <c r="F5">
-        <v>1.076245764138747</v>
+        <v>1.543063623931715</v>
       </c>
       <c r="G5">
-        <v>0.8575655972950216</v>
+        <v>0.9423126072115622</v>
       </c>
       <c r="H5">
-        <v>0.5278645121643848</v>
+        <v>0.9457548628083856</v>
       </c>
       <c r="I5">
-        <v>0.7667324287384645</v>
+        <v>1.076162072721239</v>
       </c>
       <c r="J5">
-        <v>0.08751902019443492</v>
+        <v>0.1842548947162967</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09212810827443008</v>
+        <v>0.2118730520793477</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.873136365814787</v>
+        <v>3.817723608565984</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09834242425205986</v>
+        <v>0.2084826120744765</v>
       </c>
       <c r="D6">
-        <v>0.06972786272754661</v>
+        <v>0.1682611668560554</v>
       </c>
       <c r="E6">
-        <v>0.07012572711635201</v>
+        <v>0.1567004036798032</v>
       </c>
       <c r="F6">
-        <v>1.071047929961594</v>
+        <v>1.542187970625051</v>
       </c>
       <c r="G6">
-        <v>0.8526815893796851</v>
+        <v>0.9413310356306255</v>
       </c>
       <c r="H6">
-        <v>0.5258104382675697</v>
+        <v>0.9455019260073669</v>
       </c>
       <c r="I6">
-        <v>0.7629682691303969</v>
+        <v>1.075516149641331</v>
       </c>
       <c r="J6">
-        <v>0.08725266071176918</v>
+        <v>0.1842379134400858</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09189797515564635</v>
+        <v>0.2118698908423582</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.858462708597699</v>
+        <v>3.815095055259434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1003895945443531</v>
+        <v>0.2086277574820983</v>
       </c>
       <c r="D7">
-        <v>0.07077318406757627</v>
+        <v>0.168250857717247</v>
       </c>
       <c r="E7">
-        <v>0.07144164479201365</v>
+        <v>0.156753523872549</v>
       </c>
       <c r="F7">
-        <v>1.107258653581681</v>
+        <v>1.548337868022202</v>
       </c>
       <c r="G7">
-        <v>0.886686953646219</v>
+        <v>0.9481937929152764</v>
       </c>
       <c r="H7">
-        <v>0.5401324820863493</v>
+        <v>0.9472964471265044</v>
       </c>
       <c r="I7">
-        <v>0.7891899978245434</v>
+        <v>1.080050286271614</v>
       </c>
       <c r="J7">
-        <v>0.08911179117498591</v>
+        <v>0.1843625329575076</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0935055809438694</v>
+        <v>0.211898945289235</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.960670275997387</v>
+        <v>3.833525178567442</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1096966924940261</v>
+        <v>0.209449875280157</v>
       </c>
       <c r="D8">
-        <v>0.07555931251678061</v>
+        <v>0.1683312804561581</v>
       </c>
       <c r="E8">
-        <v>0.07744767347411496</v>
+        <v>0.1571203477302028</v>
       </c>
       <c r="F8">
-        <v>1.270540106642898</v>
+        <v>1.577254170375852</v>
       </c>
       <c r="G8">
-        <v>1.039550190200131</v>
+        <v>0.9797043527199634</v>
       </c>
       <c r="H8">
-        <v>0.6050238302057664</v>
+        <v>0.956176000301781</v>
       </c>
       <c r="I8">
-        <v>0.9073972918589206</v>
+        <v>1.101312856878231</v>
       </c>
       <c r="J8">
-        <v>0.09758365569412319</v>
+        <v>0.1850793129122792</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.100864057020992</v>
+        <v>0.2122029039555215</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.421143729983385</v>
+        <v>3.919431255942129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1290540885373304</v>
+        <v>0.2117123634848923</v>
       </c>
       <c r="D9">
-        <v>0.0856316540607196</v>
+        <v>0.1689394810343856</v>
       </c>
       <c r="E9">
-        <v>0.0900303757101284</v>
+        <v>0.1583139770020487</v>
       </c>
       <c r="F9">
-        <v>1.605610492425569</v>
+        <v>1.640343245647259</v>
       </c>
       <c r="G9">
-        <v>1.351549030635908</v>
+        <v>1.045908725391172</v>
       </c>
       <c r="H9">
-        <v>0.739341453431166</v>
+        <v>0.9770346320178476</v>
       </c>
       <c r="I9">
-        <v>1.149862167601597</v>
+        <v>1.147513289427891</v>
       </c>
       <c r="J9">
-        <v>0.115294775284724</v>
+        <v>0.1870830904516865</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1163622808910318</v>
+        <v>0.213428588197921</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.364741184859383</v>
+        <v>4.104339501691641</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1440781865263006</v>
+        <v>0.2137693990293172</v>
       </c>
       <c r="D10">
-        <v>0.09351630819480761</v>
+        <v>0.1696593889176725</v>
       </c>
       <c r="E10">
-        <v>0.0998578302706683</v>
+        <v>0.1594789656588453</v>
       </c>
       <c r="F10">
-        <v>1.863274627250107</v>
+        <v>1.690590273277067</v>
       </c>
       <c r="G10">
-        <v>1.590472241195329</v>
+        <v>1.097250556706655</v>
       </c>
       <c r="H10">
-        <v>0.8433597280125866</v>
+        <v>0.9944575747461215</v>
       </c>
       <c r="I10">
-        <v>1.336254968095545</v>
+        <v>1.184206116318748</v>
       </c>
       <c r="J10">
-        <v>0.1291164761897363</v>
+        <v>0.1889190421313245</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1285222634306962</v>
+        <v>0.2147115437643023</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.089659024545085</v>
+        <v>4.250237925732165</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1511180875008336</v>
+        <v>0.2147905982924527</v>
       </c>
       <c r="D11">
-        <v>0.0972243087123843</v>
+        <v>0.1700458703943895</v>
       </c>
       <c r="E11">
-        <v>0.1044775171239216</v>
+        <v>0.1600712770171526</v>
       </c>
       <c r="F11">
-        <v>1.983575941216088</v>
+        <v>1.714296040369845</v>
       </c>
       <c r="G11">
-        <v>1.701815778802853</v>
+        <v>1.121196801144606</v>
       </c>
       <c r="H11">
-        <v>0.8920893317385605</v>
+        <v>1.002838971503138</v>
       </c>
       <c r="I11">
-        <v>1.423269286519243</v>
+        <v>1.201496678672271</v>
       </c>
       <c r="J11">
-        <v>0.1356141410292651</v>
+        <v>0.1898330956424701</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1342517679342023</v>
+        <v>0.2153779694204232</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.427997976744678</v>
+        <v>4.318797991820588</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1538162172671917</v>
+        <v>0.2151895514552677</v>
       </c>
       <c r="D12">
-        <v>0.0986472859198102</v>
+        <v>0.1702006735885604</v>
       </c>
       <c r="E12">
-        <v>0.1062503326362787</v>
+        <v>0.160304513033541</v>
       </c>
       <c r="F12">
-        <v>2.029628458515788</v>
+        <v>1.723394706966047</v>
       </c>
       <c r="G12">
-        <v>1.744410159440491</v>
+        <v>1.130349641506569</v>
       </c>
       <c r="H12">
-        <v>0.9107676576419692</v>
+        <v>1.006078217826712</v>
       </c>
       <c r="I12">
-        <v>1.456577809854338</v>
+        <v>1.208130248121691</v>
       </c>
       <c r="J12">
-        <v>0.1381079407309045</v>
+        <v>0.1901905446573693</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1364525206554319</v>
+        <v>0.2156422058599787</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.557503203838792</v>
+        <v>4.345074874831425</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1532336453876155</v>
+        <v>0.2151030856858682</v>
       </c>
       <c r="D13">
-        <v>0.09833996091888508</v>
+        <v>0.1701669585946988</v>
       </c>
       <c r="E13">
-        <v>0.1058674489939122</v>
+        <v>0.1602538842570524</v>
       </c>
       <c r="F13">
-        <v>2.019687227724091</v>
+        <v>1.721429731369284</v>
       </c>
       <c r="G13">
-        <v>1.73521670090156</v>
+        <v>1.128374636983381</v>
       </c>
       <c r="H13">
-        <v>0.9067345367438122</v>
+        <v>1.005377681741805</v>
       </c>
       <c r="I13">
-        <v>1.449387649722283</v>
+        <v>1.206697766567913</v>
       </c>
       <c r="J13">
-        <v>0.1375693247879042</v>
+        <v>0.190113058689299</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1359771205640286</v>
+        <v>0.2155847701470677</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.529547847205038</v>
+        <v>4.339401686917313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1513394009816693</v>
+        <v>0.2148231751840797</v>
       </c>
       <c r="D14">
-        <v>0.09734099191592094</v>
+        <v>0.1700584369570208</v>
       </c>
       <c r="E14">
-        <v>0.104622885911656</v>
+        <v>0.1600902864487139</v>
       </c>
       <c r="F14">
-        <v>1.987354428980751</v>
+        <v>1.715042152834997</v>
       </c>
       <c r="G14">
-        <v>1.705311109801329</v>
+        <v>1.121948109009395</v>
       </c>
       <c r="H14">
-        <v>0.8936213534550177</v>
+        <v>1.003104156372245</v>
       </c>
       <c r="I14">
-        <v>1.426002190206916</v>
+        <v>1.202040703248656</v>
       </c>
       <c r="J14">
-        <v>0.1358186220533923</v>
+        <v>0.1898622765233213</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1344321855631634</v>
+        <v>0.2153994704876467</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.438623805962095</v>
+        <v>4.320953501781673</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1501834095220147</v>
+        <v>0.2146533156918053</v>
       </c>
       <c r="D15">
-        <v>0.09673159141662069</v>
+        <v>0.1699930639515088</v>
       </c>
       <c r="E15">
-        <v>0.1038636698093214</v>
+        <v>0.1599912416342448</v>
       </c>
       <c r="F15">
-        <v>1.967616031647012</v>
+        <v>1.711145434843814</v>
       </c>
       <c r="G15">
-        <v>1.687050730298637</v>
+        <v>1.118022733549907</v>
       </c>
       <c r="H15">
-        <v>0.8856192182974212</v>
+        <v>1.001720068928165</v>
       </c>
       <c r="I15">
-        <v>1.411725751583376</v>
+        <v>1.199199315425702</v>
       </c>
       <c r="J15">
-        <v>0.134750694917301</v>
+        <v>0.1897101382578157</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1334900030508024</v>
+        <v>0.215287514708109</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.383115109068001</v>
+        <v>4.309694427688271</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1436224741819103</v>
+        <v>0.2137043772181073</v>
       </c>
       <c r="D16">
-        <v>0.09327653871026342</v>
+        <v>0.1696353157801553</v>
       </c>
       <c r="E16">
-        <v>0.09955909057100243</v>
+        <v>0.1594415092120869</v>
       </c>
       <c r="F16">
-        <v>1.855479220650892</v>
+        <v>1.689058099189737</v>
       </c>
       <c r="G16">
-        <v>1.583253223351448</v>
+        <v>1.095697496723346</v>
       </c>
       <c r="H16">
-        <v>0.8402054135068227</v>
+        <v>0.9939189882891242</v>
       </c>
       <c r="I16">
-        <v>1.330616321515294</v>
+        <v>1.183088178493207</v>
       </c>
       <c r="J16">
-        <v>0.1286963221297768</v>
+        <v>0.1888608915408696</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1281520307526947</v>
+        <v>0.2146696547924236</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.067732859282444</v>
+        <v>4.245801412653179</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1396520330734461</v>
+        <v>0.2131440901763426</v>
       </c>
       <c r="D17">
-        <v>0.09118899126234936</v>
+        <v>0.1694309353381556</v>
       </c>
       <c r="E17">
-        <v>0.09695793466038438</v>
+        <v>0.1591202178067057</v>
       </c>
       <c r="F17">
-        <v>1.787514188954859</v>
+        <v>1.675725353392465</v>
       </c>
       <c r="G17">
-        <v>1.520290689516628</v>
+        <v>1.082152944683912</v>
       </c>
       <c r="H17">
-        <v>0.8127223847936591</v>
+        <v>0.9892498833325476</v>
       </c>
       <c r="I17">
-        <v>1.281454027394872</v>
+        <v>1.173357816738346</v>
       </c>
       <c r="J17">
-        <v>0.125038070141585</v>
+        <v>0.1883600890957524</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1249298592417389</v>
+        <v>0.2143118030946383</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.8765545856931</v>
+        <v>4.207165875450755</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1373874934458854</v>
+        <v>0.2128298725899356</v>
       </c>
       <c r="D18">
-        <v>0.08999960964563769</v>
+        <v>0.1693189355992288</v>
       </c>
       <c r="E18">
-        <v>0.09547572632967771</v>
+        <v>0.1589412898942584</v>
       </c>
       <c r="F18">
-        <v>1.74870978789582</v>
+        <v>1.668136550989459</v>
       </c>
       <c r="G18">
-        <v>1.484323136773611</v>
+        <v>1.074418066012811</v>
       </c>
       <c r="H18">
-        <v>0.7970462363080912</v>
+        <v>0.9866072293752097</v>
       </c>
       <c r="I18">
-        <v>1.25338395603795</v>
+        <v>1.16781753888327</v>
       </c>
       <c r="J18">
-        <v>0.1229535179646035</v>
+        <v>0.1880794658428115</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1230950034994862</v>
+        <v>0.2141137719156418</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.76739076000905</v>
+        <v>4.18514989848876</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1366239688365312</v>
+        <v>0.2127248668035406</v>
       </c>
       <c r="D19">
-        <v>0.08959880874855486</v>
+        <v>0.1692819693728183</v>
       </c>
       <c r="E19">
-        <v>0.09497620658097716</v>
+        <v>0.1588817170073575</v>
       </c>
       <c r="F19">
-        <v>1.735619088888782</v>
+        <v>1.665580830279879</v>
       </c>
       <c r="G19">
-        <v>1.472186109607605</v>
+        <v>1.071808716799637</v>
       </c>
       <c r="H19">
-        <v>0.7917604680336012</v>
+        <v>0.9857198426240075</v>
       </c>
       <c r="I19">
-        <v>1.243914311065168</v>
+        <v>1.165951380452938</v>
       </c>
       <c r="J19">
-        <v>0.1222509978284165</v>
+        <v>0.1879857276462147</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1224768446024171</v>
+        <v>0.214048061832429</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.730562231343072</v>
+        <v>4.177731083675781</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1400726918809738</v>
+        <v>0.2132029013800292</v>
       </c>
       <c r="D20">
-        <v>0.09141003280276294</v>
+        <v>0.1694521173479018</v>
       </c>
       <c r="E20">
-        <v>0.09723337881632332</v>
+        <v>0.1591538124464051</v>
       </c>
       <c r="F20">
-        <v>1.794719080915684</v>
+        <v>1.67713638488658</v>
       </c>
       <c r="G20">
-        <v>1.526967270949939</v>
+        <v>1.083589032134142</v>
       </c>
       <c r="H20">
-        <v>0.8156342474576661</v>
+        <v>0.9897424792854395</v>
       </c>
       <c r="I20">
-        <v>1.286665769149764</v>
+        <v>1.174387797112047</v>
       </c>
       <c r="J20">
-        <v>0.1254254497571168</v>
+        <v>0.1884126320832493</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1252709366223002</v>
+        <v>0.2143490904263174</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.896822313794246</v>
+        <v>4.211257359249259</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1518948876681208</v>
+        <v>0.214905059614054</v>
       </c>
       <c r="D21">
-        <v>0.09763389031633807</v>
+        <v>0.170090083287171</v>
       </c>
       <c r="E21">
-        <v>0.1049877913506663</v>
+        <v>0.1601380966499448</v>
       </c>
       <c r="F21">
-        <v>1.996837422120734</v>
+        <v>1.716915034907331</v>
       </c>
       <c r="G21">
-        <v>1.71408299709762</v>
+        <v>1.123833431492841</v>
       </c>
       <c r="H21">
-        <v>0.8974667039329347</v>
+        <v>1.003770172107039</v>
       </c>
       <c r="I21">
-        <v>1.432861025362172</v>
+        <v>1.203406262172649</v>
       </c>
       <c r="J21">
-        <v>0.1363319170704358</v>
+        <v>0.1899356303855129</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1348851036623628</v>
+        <v>0.2154535754410603</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.465291578067422</v>
+        <v>4.326363642893227</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1598109195063131</v>
+        <v>0.2160888860254317</v>
       </c>
       <c r="D22">
-        <v>0.1018120775810658</v>
+        <v>0.1705562753562262</v>
       </c>
       <c r="E22">
-        <v>0.1101934269313425</v>
+        <v>0.1608334839038825</v>
       </c>
       <c r="F22">
-        <v>2.131858444109866</v>
+        <v>1.743622595914971</v>
       </c>
       <c r="G22">
-        <v>1.838912118160493</v>
+        <v>1.150630432039065</v>
       </c>
       <c r="H22">
-        <v>0.9522751874529831</v>
+        <v>1.013319185784411</v>
       </c>
       <c r="I22">
-        <v>1.530515612914684</v>
+        <v>1.222872785554358</v>
       </c>
       <c r="J22">
-        <v>0.143655495649007</v>
+        <v>0.1909969494175598</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1413512761137028</v>
+        <v>0.2162446253436059</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.844963964747137</v>
+        <v>4.403426292070321</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1555676758847113</v>
+        <v>0.215450538467266</v>
       </c>
       <c r="D23">
-        <v>0.09957149218404027</v>
+        <v>0.1703029645135388</v>
       </c>
       <c r="E23">
-        <v>0.1074017794622115</v>
+        <v>0.1604575838574505</v>
       </c>
       <c r="F23">
-        <v>2.059508832484099</v>
+        <v>1.729303361729592</v>
       </c>
       <c r="G23">
-        <v>1.772038858350243</v>
+        <v>1.136283082525438</v>
       </c>
       <c r="H23">
-        <v>0.9228935273666536</v>
+        <v>1.008187866786017</v>
       </c>
       <c r="I23">
-        <v>1.478189098104821</v>
+        <v>1.21243730136905</v>
       </c>
       <c r="J23">
-        <v>0.1397277859171808</v>
+        <v>0.1904244769857328</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1378824957001399</v>
+        <v>0.2158161051852687</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.641526862333478</v>
+        <v>4.362128778469867</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1398824557995084</v>
+        <v>0.2131762882276007</v>
       </c>
       <c r="D24">
-        <v>0.09131006645850448</v>
+        <v>0.1694425238239532</v>
       </c>
       <c r="E24">
-        <v>0.09710880945108258</v>
+        <v>0.1591386062829407</v>
       </c>
       <c r="F24">
-        <v>1.7914609134546</v>
+        <v>1.676498219639825</v>
       </c>
       <c r="G24">
-        <v>1.523948074348823</v>
+        <v>1.082939614816098</v>
       </c>
       <c r="H24">
-        <v>0.8143174091392495</v>
+        <v>0.989519646818195</v>
       </c>
       <c r="I24">
-        <v>1.284308939338544</v>
+        <v>1.173921975274965</v>
       </c>
       <c r="J24">
-        <v>0.1252502576465346</v>
+        <v>0.1883888546747983</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1251166808745126</v>
+        <v>0.2143322088291981</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.887656958106618</v>
+        <v>4.209406988518708</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1236863284151042</v>
+        <v>0.2110308521812527</v>
       </c>
       <c r="D25">
-        <v>0.08282677994886711</v>
+        <v>0.1687268810623976</v>
       </c>
       <c r="E25">
-        <v>0.08653113980596672</v>
+        <v>0.1579404079817479</v>
       </c>
       <c r="F25">
-        <v>1.513134036364278</v>
+        <v>1.622592143835874</v>
       </c>
       <c r="G25">
-        <v>1.26561464335748</v>
+        <v>1.027525122434014</v>
       </c>
       <c r="H25">
-        <v>0.7021473085824539</v>
+        <v>0.9710231873908981</v>
       </c>
       <c r="I25">
-        <v>1.082954729909503</v>
+        <v>1.134532267181697</v>
       </c>
       <c r="J25">
-        <v>0.1103721084549321</v>
+        <v>0.1864770691823665</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1120431793281043</v>
+        <v>0.2130297470715661</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.10444564456094</v>
+        <v>4.052554133090553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2097167003751395</v>
+        <v>0.1122888821158483</v>
       </c>
       <c r="D2">
-        <v>0.1683836165379375</v>
+        <v>0.07690030577381179</v>
       </c>
       <c r="E2">
-        <v>0.1572518775516691</v>
+        <v>0.07912628820666257</v>
       </c>
       <c r="F2">
-        <v>1.585520969950849</v>
+        <v>1.31570455011925</v>
       </c>
       <c r="G2">
-        <v>0.9885403027152648</v>
+        <v>1.081719305451202</v>
       </c>
       <c r="H2">
-        <v>0.9588152100885736</v>
+        <v>0.6230489430370483</v>
       </c>
       <c r="I2">
-        <v>1.107378677071821</v>
+        <v>0.9400865392417757</v>
       </c>
       <c r="J2">
-        <v>0.1853140390250303</v>
+        <v>0.09994857198985585</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2123279231335857</v>
+        <v>0.1029259134536531</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.943819789077736</v>
+        <v>3.548419648052572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2089922281128764</v>
+        <v>0.104851551758955</v>
       </c>
       <c r="D3">
-        <v>0.1682660490980226</v>
+        <v>0.07306151383010473</v>
       </c>
       <c r="E3">
-        <v>0.1569064231002919</v>
+        <v>0.07431660011818764</v>
       </c>
       <c r="F3">
-        <v>1.562029610908425</v>
+        <v>1.185783470661036</v>
       </c>
       <c r="G3">
-        <v>0.9632484458721677</v>
+        <v>0.9602896322167567</v>
       </c>
       <c r="H3">
-        <v>0.9514223883856232</v>
+        <v>0.5712815492702674</v>
       </c>
       <c r="I3">
-        <v>1.090128063910129</v>
+        <v>0.846043742500747</v>
       </c>
       <c r="J3">
-        <v>0.1846786843179231</v>
+        <v>0.09316944467232702</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2120131430796448</v>
+        <v>0.09702394730886965</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.87433464924348</v>
+        <v>3.182193316393892</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2086295553522319</v>
+        <v>0.1004136930158239</v>
       </c>
       <c r="D4">
-        <v>0.1682508060830017</v>
+        <v>0.07078550761728764</v>
       </c>
       <c r="E4">
-        <v>0.1567542179741217</v>
+        <v>0.07145714766012645</v>
       </c>
       <c r="F4">
-        <v>1.5484108024786</v>
+        <v>1.107684170545951</v>
       </c>
       <c r="G4">
-        <v>0.9482747664937108</v>
+        <v>0.8870862973718516</v>
       </c>
       <c r="H4">
-        <v>0.9473179711940389</v>
+        <v>0.5403009492389685</v>
       </c>
       <c r="I4">
-        <v>1.080104027687696</v>
+        <v>0.7894981153136484</v>
       </c>
       <c r="J4">
-        <v>0.1843640825306352</v>
+        <v>0.08913368590042126</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2118993815216257</v>
+        <v>0.0935245313793942</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.833743338436676</v>
+        <v>2.961871108490016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2085024639902073</v>
+        <v>0.09863583676292365</v>
       </c>
       <c r="D5">
-        <v>0.1682589471707132</v>
+        <v>0.06987748812390038</v>
       </c>
       <c r="E5">
-        <v>0.1567072846196673</v>
+        <v>0.07031420100916463</v>
       </c>
       <c r="F5">
-        <v>1.543063623931715</v>
+        <v>1.076245764138719</v>
       </c>
       <c r="G5">
-        <v>0.9423126072115622</v>
+        <v>0.8575655972949932</v>
       </c>
       <c r="H5">
-        <v>0.9457548628083856</v>
+        <v>0.527864512164399</v>
       </c>
       <c r="I5">
-        <v>1.076162072721239</v>
+        <v>0.7667324287384716</v>
       </c>
       <c r="J5">
-        <v>0.1842548947162967</v>
+        <v>0.08751902019449886</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2118730520793477</v>
+        <v>0.09212810827449402</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.817723608565984</v>
+        <v>2.87313636581473</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2084826120744765</v>
+        <v>0.09834242425217354</v>
       </c>
       <c r="D6">
-        <v>0.1682611668560554</v>
+        <v>0.0697278627275395</v>
       </c>
       <c r="E6">
-        <v>0.1567004036798032</v>
+        <v>0.07012572711633069</v>
       </c>
       <c r="F6">
-        <v>1.542187970625051</v>
+        <v>1.071047929961594</v>
       </c>
       <c r="G6">
-        <v>0.9413310356306255</v>
+        <v>0.8526815893797561</v>
       </c>
       <c r="H6">
-        <v>0.9455019260073669</v>
+        <v>0.5258104382675697</v>
       </c>
       <c r="I6">
-        <v>1.075516149641331</v>
+        <v>0.7629682691304041</v>
       </c>
       <c r="J6">
-        <v>0.1842379134400858</v>
+        <v>0.08725266071178339</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2118698908423582</v>
+        <v>0.09189797515563924</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.815095055259434</v>
+        <v>2.858462708597756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2086277574820983</v>
+        <v>0.1003895945445876</v>
       </c>
       <c r="D7">
-        <v>0.168250857717247</v>
+        <v>0.07077318406769706</v>
       </c>
       <c r="E7">
-        <v>0.156753523872549</v>
+        <v>0.07144164479199944</v>
       </c>
       <c r="F7">
-        <v>1.548337868022202</v>
+        <v>1.107258653581681</v>
       </c>
       <c r="G7">
-        <v>0.9481937929152764</v>
+        <v>0.8866869536462332</v>
       </c>
       <c r="H7">
-        <v>0.9472964471265044</v>
+        <v>0.5401324820863493</v>
       </c>
       <c r="I7">
-        <v>1.080050286271614</v>
+        <v>0.7891899978245505</v>
       </c>
       <c r="J7">
-        <v>0.1843625329575076</v>
+        <v>0.08911179117499302</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.211898945289235</v>
+        <v>0.0935055809438623</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.833525178567442</v>
+        <v>2.960670275997501</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.209449875280157</v>
+        <v>0.1096966924941825</v>
       </c>
       <c r="D8">
-        <v>0.1683312804561581</v>
+        <v>0.07555931251678061</v>
       </c>
       <c r="E8">
-        <v>0.1571203477302028</v>
+        <v>0.07744767347411141</v>
       </c>
       <c r="F8">
-        <v>1.577254170375852</v>
+        <v>1.270540106642883</v>
       </c>
       <c r="G8">
-        <v>0.9797043527199634</v>
+        <v>1.039550190200131</v>
       </c>
       <c r="H8">
-        <v>0.956176000301781</v>
+        <v>0.6050238302055391</v>
       </c>
       <c r="I8">
-        <v>1.101312856878231</v>
+        <v>0.9073972918589419</v>
       </c>
       <c r="J8">
-        <v>0.1850793129122792</v>
+        <v>0.09758365569421557</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2122029039555215</v>
+        <v>0.1008640570210275</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.919431255942129</v>
+        <v>3.421143729983356</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2117123634848923</v>
+        <v>0.1290540885373872</v>
       </c>
       <c r="D9">
-        <v>0.1689394810343856</v>
+        <v>0.08563165406060591</v>
       </c>
       <c r="E9">
-        <v>0.1583139770020487</v>
+        <v>0.0900303757101284</v>
       </c>
       <c r="F9">
-        <v>1.640343245647259</v>
+        <v>1.605610492425569</v>
       </c>
       <c r="G9">
-        <v>1.045908725391172</v>
+        <v>1.35154903063588</v>
       </c>
       <c r="H9">
-        <v>0.9770346320178476</v>
+        <v>0.7393414534311376</v>
       </c>
       <c r="I9">
-        <v>1.147513289427891</v>
+        <v>1.149862167601611</v>
       </c>
       <c r="J9">
-        <v>0.1870830904516865</v>
+        <v>0.1152947752846671</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.213428588197921</v>
+        <v>0.1163622808911029</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.104339501691641</v>
+        <v>4.364741184859383</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2137693990293172</v>
+        <v>0.1440781865261584</v>
       </c>
       <c r="D10">
-        <v>0.1696593889176725</v>
+        <v>0.0935163081948005</v>
       </c>
       <c r="E10">
-        <v>0.1594789656588453</v>
+        <v>0.09985783027070738</v>
       </c>
       <c r="F10">
-        <v>1.690590273277067</v>
+        <v>1.863274627250107</v>
       </c>
       <c r="G10">
-        <v>1.097250556706655</v>
+        <v>1.590472241195414</v>
       </c>
       <c r="H10">
-        <v>0.9944575747461215</v>
+        <v>0.8433597280127003</v>
       </c>
       <c r="I10">
-        <v>1.184206116318748</v>
+        <v>1.336254968095531</v>
       </c>
       <c r="J10">
-        <v>0.1889190421313245</v>
+        <v>0.1291164761897363</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2147115437643023</v>
+        <v>0.1285222634307388</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.250237925732165</v>
+        <v>5.089659024545028</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2147905982924527</v>
+        <v>0.1511180875010183</v>
       </c>
       <c r="D11">
-        <v>0.1700458703943895</v>
+        <v>0.09722430871241272</v>
       </c>
       <c r="E11">
-        <v>0.1600712770171526</v>
+        <v>0.1044775171239252</v>
       </c>
       <c r="F11">
-        <v>1.714296040369845</v>
+        <v>1.983575941216102</v>
       </c>
       <c r="G11">
-        <v>1.121196801144606</v>
+        <v>1.701815778802853</v>
       </c>
       <c r="H11">
-        <v>1.002838971503138</v>
+        <v>0.8920893317384468</v>
       </c>
       <c r="I11">
-        <v>1.201496678672271</v>
+        <v>1.423269286519243</v>
       </c>
       <c r="J11">
-        <v>0.1898330956424701</v>
+        <v>0.1356141410292793</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2153779694204232</v>
+        <v>0.1342517679342592</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.318797991820588</v>
+        <v>5.427997976744621</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2151895514552677</v>
+        <v>0.153816217267206</v>
       </c>
       <c r="D12">
-        <v>0.1702006735885604</v>
+        <v>0.09864728591999494</v>
       </c>
       <c r="E12">
-        <v>0.160304513033541</v>
+        <v>0.1062503326363284</v>
       </c>
       <c r="F12">
-        <v>1.723394706966047</v>
+        <v>2.029628458515802</v>
       </c>
       <c r="G12">
-        <v>1.130349641506569</v>
+        <v>1.744410159440548</v>
       </c>
       <c r="H12">
-        <v>1.006078217826712</v>
+        <v>0.9107676576418555</v>
       </c>
       <c r="I12">
-        <v>1.208130248121691</v>
+        <v>1.456577809854323</v>
       </c>
       <c r="J12">
-        <v>0.1901905446573693</v>
+        <v>0.1381079407309045</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2156422058599787</v>
+        <v>0.136452520655439</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.345074874831425</v>
+        <v>5.557503203838792</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2151030856858682</v>
+        <v>0.1532336453876297</v>
       </c>
       <c r="D13">
-        <v>0.1701669585946988</v>
+        <v>0.09833996091889929</v>
       </c>
       <c r="E13">
-        <v>0.1602538842570524</v>
+        <v>0.1058674489939158</v>
       </c>
       <c r="F13">
-        <v>1.721429731369284</v>
+        <v>2.019687227724106</v>
       </c>
       <c r="G13">
-        <v>1.128374636983381</v>
+        <v>1.735216700901503</v>
       </c>
       <c r="H13">
-        <v>1.005377681741805</v>
+        <v>0.9067345367438406</v>
       </c>
       <c r="I13">
-        <v>1.206697766567913</v>
+        <v>1.449387649722283</v>
       </c>
       <c r="J13">
-        <v>0.190113058689299</v>
+        <v>0.1375693247877479</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2155847701470677</v>
+        <v>0.1359771205641493</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.339401686917313</v>
+        <v>5.529547847204981</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2148231751840797</v>
+        <v>0.1513394009816693</v>
       </c>
       <c r="D14">
-        <v>0.1700584369570208</v>
+        <v>0.09734099191580015</v>
       </c>
       <c r="E14">
-        <v>0.1600902864487139</v>
+        <v>0.1046228859116596</v>
       </c>
       <c r="F14">
-        <v>1.715042152834997</v>
+        <v>1.987354428980751</v>
       </c>
       <c r="G14">
-        <v>1.121948109009395</v>
+        <v>1.705311109801244</v>
       </c>
       <c r="H14">
-        <v>1.003104156372245</v>
+        <v>0.893621353454904</v>
       </c>
       <c r="I14">
-        <v>1.202040703248656</v>
+        <v>1.426002190206916</v>
       </c>
       <c r="J14">
-        <v>0.1898622765233213</v>
+        <v>0.1358186220532929</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2153994704876467</v>
+        <v>0.1344321855631705</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.320953501781673</v>
+        <v>5.438623805962095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2146533156918053</v>
+        <v>0.1501834095218015</v>
       </c>
       <c r="D15">
-        <v>0.1699930639515088</v>
+        <v>0.09673159141641463</v>
       </c>
       <c r="E15">
-        <v>0.1599912416342448</v>
+        <v>0.103863669809293</v>
       </c>
       <c r="F15">
-        <v>1.711145434843814</v>
+        <v>1.967616031647012</v>
       </c>
       <c r="G15">
-        <v>1.118022733549907</v>
+        <v>1.687050730298694</v>
       </c>
       <c r="H15">
-        <v>1.001720068928165</v>
+        <v>0.8856192182974212</v>
       </c>
       <c r="I15">
-        <v>1.199199315425702</v>
+        <v>1.411725751583404</v>
       </c>
       <c r="J15">
-        <v>0.1897101382578157</v>
+        <v>0.134750694917237</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.215287514708109</v>
+        <v>0.1334900030506887</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.309694427688271</v>
+        <v>5.383115109067944</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2137043772181073</v>
+        <v>0.1436224741824503</v>
       </c>
       <c r="D16">
-        <v>0.1696353157801553</v>
+        <v>0.09327653871037</v>
       </c>
       <c r="E16">
-        <v>0.1594415092120869</v>
+        <v>0.09955909057100243</v>
       </c>
       <c r="F16">
-        <v>1.689058099189737</v>
+        <v>1.855479220650892</v>
       </c>
       <c r="G16">
-        <v>1.095697496723346</v>
+        <v>1.58325322335142</v>
       </c>
       <c r="H16">
-        <v>0.9939189882891242</v>
+        <v>0.8402054135068227</v>
       </c>
       <c r="I16">
-        <v>1.183088178493207</v>
+        <v>1.330616321515294</v>
       </c>
       <c r="J16">
-        <v>0.1888608915408696</v>
+        <v>0.1286963221296631</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2146696547924236</v>
+        <v>0.1281520307526876</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.245801412653179</v>
+        <v>5.067732859282444</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2131440901763426</v>
+        <v>0.1396520330734603</v>
       </c>
       <c r="D17">
-        <v>0.1694309353381556</v>
+        <v>0.09118899126245594</v>
       </c>
       <c r="E17">
-        <v>0.1591202178067057</v>
+        <v>0.09695793466037728</v>
       </c>
       <c r="F17">
-        <v>1.675725353392465</v>
+        <v>1.787514188954859</v>
       </c>
       <c r="G17">
-        <v>1.082152944683912</v>
+        <v>1.520290689516656</v>
       </c>
       <c r="H17">
-        <v>0.9892498833325476</v>
+        <v>0.8127223847936591</v>
       </c>
       <c r="I17">
-        <v>1.173357816738346</v>
+        <v>1.281454027394872</v>
       </c>
       <c r="J17">
-        <v>0.1883600890957524</v>
+        <v>0.1250380701416418</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2143118030946383</v>
+        <v>0.1249298592417887</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.207165875450755</v>
+        <v>4.876554585693157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2128298725899356</v>
+        <v>0.1373874934458712</v>
       </c>
       <c r="D18">
-        <v>0.1693189355992288</v>
+        <v>0.08999960964542453</v>
       </c>
       <c r="E18">
-        <v>0.1589412898942584</v>
+        <v>0.09547572632969192</v>
       </c>
       <c r="F18">
-        <v>1.668136550989459</v>
+        <v>1.748709787895805</v>
       </c>
       <c r="G18">
-        <v>1.074418066012811</v>
+        <v>1.484323136773554</v>
       </c>
       <c r="H18">
-        <v>0.9866072293752097</v>
+        <v>0.7970462363079776</v>
       </c>
       <c r="I18">
-        <v>1.16781753888327</v>
+        <v>1.25338395603795</v>
       </c>
       <c r="J18">
-        <v>0.1880794658428115</v>
+        <v>0.1229535179646035</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2141137719156418</v>
+        <v>0.1230950034995502</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.18514989848876</v>
+        <v>4.767390760009107</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2127248668035406</v>
+        <v>0.1366239688364601</v>
       </c>
       <c r="D19">
-        <v>0.1692819693728183</v>
+        <v>0.08959880874855486</v>
       </c>
       <c r="E19">
-        <v>0.1588817170073575</v>
+        <v>0.09497620658100914</v>
       </c>
       <c r="F19">
-        <v>1.665580830279879</v>
+        <v>1.735619088888782</v>
       </c>
       <c r="G19">
-        <v>1.071808716799637</v>
+        <v>1.472186109607719</v>
       </c>
       <c r="H19">
-        <v>0.9857198426240075</v>
+        <v>0.7917604680335728</v>
       </c>
       <c r="I19">
-        <v>1.165951380452938</v>
+        <v>1.243914311065168</v>
       </c>
       <c r="J19">
-        <v>0.1879857276462147</v>
+        <v>0.122250997828516</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.214048061832429</v>
+        <v>0.1224768446024669</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.177731083675781</v>
+        <v>4.730562231343072</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2132029013800292</v>
+        <v>0.1400726918810875</v>
       </c>
       <c r="D20">
-        <v>0.1694521173479018</v>
+        <v>0.09141003280265636</v>
       </c>
       <c r="E20">
-        <v>0.1591538124464051</v>
+        <v>0.09723337881631622</v>
       </c>
       <c r="F20">
-        <v>1.67713638488658</v>
+        <v>1.794719080915669</v>
       </c>
       <c r="G20">
-        <v>1.083589032134142</v>
+        <v>1.526967270949797</v>
       </c>
       <c r="H20">
-        <v>0.9897424792854395</v>
+        <v>0.8156342474576661</v>
       </c>
       <c r="I20">
-        <v>1.174387797112047</v>
+        <v>1.286665769149764</v>
       </c>
       <c r="J20">
-        <v>0.1884126320832493</v>
+        <v>0.1254254497570813</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2143490904263174</v>
+        <v>0.1252709366222504</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.211257359249259</v>
+        <v>4.896822313794075</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.214905059614054</v>
+        <v>0.1518948876681208</v>
       </c>
       <c r="D21">
-        <v>0.170090083287171</v>
+        <v>0.09763389031623149</v>
       </c>
       <c r="E21">
-        <v>0.1601380966499448</v>
+        <v>0.1049877913507409</v>
       </c>
       <c r="F21">
-        <v>1.716915034907331</v>
+        <v>1.996837422120734</v>
       </c>
       <c r="G21">
-        <v>1.123833431492841</v>
+        <v>1.71408299709762</v>
       </c>
       <c r="H21">
-        <v>1.003770172107039</v>
+        <v>0.8974667039330484</v>
       </c>
       <c r="I21">
-        <v>1.203406262172649</v>
+        <v>1.432861025362172</v>
       </c>
       <c r="J21">
-        <v>0.1899356303855129</v>
+        <v>0.1363319170704855</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2154535754410603</v>
+        <v>0.134885103662242</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.326363642893227</v>
+        <v>5.465291578067422</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2160888860254317</v>
+        <v>0.159810919506242</v>
       </c>
       <c r="D22">
-        <v>0.1705562753562262</v>
+        <v>0.1018120775810587</v>
       </c>
       <c r="E22">
-        <v>0.1608334839038825</v>
+        <v>0.1101934269313141</v>
       </c>
       <c r="F22">
-        <v>1.743622595914971</v>
+        <v>2.131858444109881</v>
       </c>
       <c r="G22">
-        <v>1.150630432039065</v>
+        <v>1.838912118160522</v>
       </c>
       <c r="H22">
-        <v>1.013319185784411</v>
+        <v>0.9522751874529831</v>
       </c>
       <c r="I22">
-        <v>1.222872785554358</v>
+        <v>1.530515612914655</v>
       </c>
       <c r="J22">
-        <v>0.1909969494175598</v>
+        <v>0.1436554956489076</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2162446253436059</v>
+        <v>0.1413512761137099</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.403426292070321</v>
+        <v>5.84496396474708</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.215450538467266</v>
+        <v>0.1555676758849103</v>
       </c>
       <c r="D23">
-        <v>0.1703029645135388</v>
+        <v>0.09957149218404737</v>
       </c>
       <c r="E23">
-        <v>0.1604575838574505</v>
+        <v>0.1074017794621867</v>
       </c>
       <c r="F23">
-        <v>1.729303361729592</v>
+        <v>2.059508832484113</v>
       </c>
       <c r="G23">
-        <v>1.136283082525438</v>
+        <v>1.772038858350243</v>
       </c>
       <c r="H23">
-        <v>1.008187866786017</v>
+        <v>0.9228935273666536</v>
       </c>
       <c r="I23">
-        <v>1.21243730136905</v>
+        <v>1.478189098104792</v>
       </c>
       <c r="J23">
-        <v>0.1904244769857328</v>
+        <v>0.1397277859171666</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2158161051852687</v>
+        <v>0.1378824957001896</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.362128778469867</v>
+        <v>5.641526862333592</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2131762882276007</v>
+        <v>0.1398824557995084</v>
       </c>
       <c r="D24">
-        <v>0.1694425238239532</v>
+        <v>0.09131006645862527</v>
       </c>
       <c r="E24">
-        <v>0.1591386062829407</v>
+        <v>0.09710880945113587</v>
       </c>
       <c r="F24">
-        <v>1.676498219639825</v>
+        <v>1.7914609134546</v>
       </c>
       <c r="G24">
-        <v>1.082939614816098</v>
+        <v>1.523948074348823</v>
       </c>
       <c r="H24">
-        <v>0.989519646818195</v>
+        <v>0.8143174091392495</v>
       </c>
       <c r="I24">
-        <v>1.173921975274965</v>
+        <v>1.28430893933853</v>
       </c>
       <c r="J24">
-        <v>0.1883888546747983</v>
+        <v>0.125250257646492</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2143322088291981</v>
+        <v>0.1251166808745623</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.209406988518708</v>
+        <v>4.887656958106618</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2110308521812527</v>
+        <v>0.1236863284153884</v>
       </c>
       <c r="D25">
-        <v>0.1687268810623976</v>
+        <v>0.08282677994875343</v>
       </c>
       <c r="E25">
-        <v>0.1579404079817479</v>
+        <v>0.08653113980596316</v>
       </c>
       <c r="F25">
-        <v>1.622592143835874</v>
+        <v>1.513134036364278</v>
       </c>
       <c r="G25">
-        <v>1.027525122434014</v>
+        <v>1.265614643357424</v>
       </c>
       <c r="H25">
-        <v>0.9710231873908981</v>
+        <v>0.7021473085824539</v>
       </c>
       <c r="I25">
-        <v>1.134532267181697</v>
+        <v>1.082954729909503</v>
       </c>
       <c r="J25">
-        <v>0.1864770691823665</v>
+        <v>0.1103721084549818</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2130297470715661</v>
+        <v>0.112043179328154</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.052554133090553</v>
+        <v>4.10444564456094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1122888821158483</v>
+        <v>0.1954449466616097</v>
       </c>
       <c r="D2">
-        <v>0.07690030577381179</v>
+        <v>0.08648202564335605</v>
       </c>
       <c r="E2">
-        <v>0.07912628820666257</v>
+        <v>0.1084268109720092</v>
       </c>
       <c r="F2">
-        <v>1.31570455011925</v>
+        <v>1.422168031617005</v>
       </c>
       <c r="G2">
-        <v>1.081719305451202</v>
+        <v>1.137960904176936</v>
       </c>
       <c r="H2">
-        <v>0.6230489430370483</v>
+        <v>0.0009396797436782567</v>
       </c>
       <c r="I2">
-        <v>0.9400865392417757</v>
+        <v>0.005377594914510286</v>
       </c>
       <c r="J2">
-        <v>0.09994857198985585</v>
+        <v>0.6892836669894677</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.042039572899853</v>
       </c>
       <c r="L2">
-        <v>0.1029259134536531</v>
+        <v>0.1514535694050352</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1215248963212332</v>
       </c>
       <c r="O2">
-        <v>3.548419648052572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>7.663121664604034</v>
+      </c>
+      <c r="Q2">
+        <v>3.804381601200078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.104851551758955</v>
+        <v>0.1820179036015546</v>
       </c>
       <c r="D3">
-        <v>0.07306151383010473</v>
+        <v>0.08155607911643159</v>
       </c>
       <c r="E3">
-        <v>0.07431660011818764</v>
+        <v>0.1007880530107386</v>
       </c>
       <c r="F3">
-        <v>1.185783470661036</v>
+        <v>1.291522143230694</v>
       </c>
       <c r="G3">
-        <v>0.9602896322167567</v>
+        <v>1.019736084564215</v>
       </c>
       <c r="H3">
-        <v>0.5712815492702674</v>
+        <v>0.000212815148425527</v>
       </c>
       <c r="I3">
-        <v>0.846043742500747</v>
+        <v>0.003211151040017679</v>
       </c>
       <c r="J3">
-        <v>0.09316944467232702</v>
+        <v>0.6357505283868647</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.946893656425118</v>
       </c>
       <c r="L3">
-        <v>0.09702394730886965</v>
+        <v>0.1397048342087643</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1126638922972916</v>
       </c>
       <c r="O3">
-        <v>3.182193316393892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="Q3">
+        <v>3.441410314719292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1004136930158239</v>
+        <v>0.1735891502418525</v>
       </c>
       <c r="D4">
-        <v>0.07078550761728764</v>
+        <v>0.07856131634385122</v>
       </c>
       <c r="E4">
-        <v>0.07145714766012645</v>
+        <v>0.09606626360354298</v>
       </c>
       <c r="F4">
-        <v>1.107684170545951</v>
+        <v>1.211573774519394</v>
       </c>
       <c r="G4">
-        <v>0.8870862973718516</v>
+        <v>0.9473055107104074</v>
       </c>
       <c r="H4">
-        <v>0.5403009492389685</v>
+        <v>1.889179504388494E-05</v>
       </c>
       <c r="I4">
-        <v>0.7894981153136484</v>
+        <v>0.002169382131859798</v>
       </c>
       <c r="J4">
-        <v>0.08913368590042126</v>
+        <v>0.6030299654400864</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8884464864600119</v>
       </c>
       <c r="L4">
-        <v>0.0935245313793942</v>
+        <v>0.1324116705713863</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1072654720135588</v>
       </c>
       <c r="O4">
-        <v>2.961871108490016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="Q4">
+        <v>3.219184464874132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09863583676292365</v>
+        <v>0.1697556322588483</v>
       </c>
       <c r="D5">
-        <v>0.06987748812390038</v>
+        <v>0.07735971746910764</v>
       </c>
       <c r="E5">
-        <v>0.07031420100916463</v>
+        <v>0.09408805760917005</v>
       </c>
       <c r="F5">
-        <v>1.076245764138719</v>
+        <v>1.178197253718139</v>
       </c>
       <c r="G5">
-        <v>0.8575655972949932</v>
+        <v>0.916993911357963</v>
       </c>
       <c r="H5">
-        <v>0.527864512164399</v>
+        <v>1.814134176214566E-09</v>
       </c>
       <c r="I5">
-        <v>0.7667324287384716</v>
+        <v>0.001869327273338772</v>
       </c>
       <c r="J5">
-        <v>0.08751902019449886</v>
+        <v>0.5893175444897594</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8636825696366159</v>
       </c>
       <c r="L5">
-        <v>0.09212810827449402</v>
+        <v>0.129312889789766</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1051806304432077</v>
       </c>
       <c r="O5">
-        <v>2.87313636581473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="Q5">
+        <v>3.126143775570199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09834242425217354</v>
+        <v>0.1686870455204001</v>
       </c>
       <c r="D6">
-        <v>0.0697278627275395</v>
+        <v>0.07717508960319464</v>
       </c>
       <c r="E6">
-        <v>0.07012572711633069</v>
+        <v>0.09370338966206404</v>
       </c>
       <c r="F6">
-        <v>1.071047929961594</v>
+        <v>1.171613491507912</v>
       </c>
       <c r="G6">
-        <v>0.8526815893797561</v>
+        <v>0.9109516093007954</v>
       </c>
       <c r="H6">
-        <v>0.5258104382675697</v>
+        <v>5.176985726773609E-07</v>
       </c>
       <c r="I6">
-        <v>0.7629682691304041</v>
+        <v>0.001899527768842724</v>
       </c>
       <c r="J6">
-        <v>0.08725266071178339</v>
+        <v>0.5865388308127706</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8584276026104192</v>
       </c>
       <c r="L6">
-        <v>0.09189797515563924</v>
+        <v>0.1286675880732275</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1049645523793572</v>
       </c>
       <c r="O6">
-        <v>2.858462708597756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="Q6">
+        <v>3.107504488662187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1003895945445876</v>
+        <v>0.1723610810920206</v>
       </c>
       <c r="D7">
-        <v>0.07077318406769706</v>
+        <v>0.07858480586686767</v>
       </c>
       <c r="E7">
-        <v>0.07144164479199944</v>
+        <v>0.09588748983218665</v>
       </c>
       <c r="F7">
-        <v>1.107258653581681</v>
+        <v>1.208263164008827</v>
       </c>
       <c r="G7">
-        <v>0.8866869536462332</v>
+        <v>0.9441285525718115</v>
       </c>
       <c r="H7">
-        <v>0.5401324820863493</v>
+        <v>1.744358028754611E-05</v>
       </c>
       <c r="I7">
-        <v>0.7891899978245505</v>
+        <v>0.00235587334057108</v>
       </c>
       <c r="J7">
-        <v>0.08911179117499302</v>
+        <v>0.6014664222939388</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.884985298421725</v>
       </c>
       <c r="L7">
-        <v>0.0935055809438623</v>
+        <v>0.1320157395921626</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1075917467530232</v>
       </c>
       <c r="O7">
-        <v>2.960670275997501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="Q7">
+        <v>3.209174981898002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1096966924941825</v>
+        <v>0.1892842852964804</v>
       </c>
       <c r="D8">
-        <v>0.07555931251678061</v>
+        <v>0.08483029299767963</v>
       </c>
       <c r="E8">
-        <v>0.07744767347411141</v>
+        <v>0.1055972642680167</v>
       </c>
       <c r="F8">
-        <v>1.270540106642883</v>
+        <v>1.373245347315034</v>
       </c>
       <c r="G8">
-        <v>1.039550190200131</v>
+        <v>1.093462843293651</v>
       </c>
       <c r="H8">
-        <v>0.6050238302055391</v>
+        <v>0.0006274662703946721</v>
       </c>
       <c r="I8">
-        <v>0.9073972918589419</v>
+        <v>0.004784951341576971</v>
       </c>
       <c r="J8">
-        <v>0.09758365569421557</v>
+        <v>0.6689556050624788</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.005064680112611</v>
       </c>
       <c r="L8">
-        <v>0.1008640570210275</v>
+        <v>0.1469472862138375</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1189326932324661</v>
       </c>
       <c r="O8">
-        <v>3.421143729983356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="Q8">
+        <v>3.667400687825193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1290540885373872</v>
+        <v>0.2231626629387904</v>
       </c>
       <c r="D9">
-        <v>0.08563165406060591</v>
+        <v>0.09726683771971523</v>
       </c>
       <c r="E9">
-        <v>0.0900303757101284</v>
+        <v>0.1246903366750871</v>
       </c>
       <c r="F9">
-        <v>1.605610492425569</v>
+        <v>1.704600040474958</v>
       </c>
       <c r="G9">
-        <v>1.35154903063588</v>
+        <v>1.3930662650084</v>
       </c>
       <c r="H9">
-        <v>0.7393414534311376</v>
+        <v>0.003999755482230305</v>
       </c>
       <c r="I9">
-        <v>1.149862167601611</v>
+        <v>0.01177063171910309</v>
       </c>
       <c r="J9">
-        <v>0.1152947752846671</v>
+        <v>0.8051870832127008</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.246267296367023</v>
       </c>
       <c r="L9">
-        <v>0.1163622808911029</v>
+        <v>0.1762813360835196</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1409248183352503</v>
       </c>
       <c r="O9">
-        <v>4.364741184859383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>9.620230281550789</v>
+      </c>
+      <c r="Q9">
+        <v>4.588356628412271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1440781865261584</v>
+        <v>0.2439647531547706</v>
       </c>
       <c r="D10">
-        <v>0.0935163081948005</v>
+        <v>0.1050096067474087</v>
       </c>
       <c r="E10">
-        <v>0.09985783027070738</v>
+        <v>0.1352166645662827</v>
       </c>
       <c r="F10">
-        <v>1.863274627250107</v>
+        <v>1.931379750606709</v>
       </c>
       <c r="G10">
-        <v>1.590472241195414</v>
+        <v>1.599906189859695</v>
       </c>
       <c r="H10">
-        <v>0.8433597280127003</v>
+        <v>0.007977056071730715</v>
       </c>
       <c r="I10">
-        <v>1.336254968095531</v>
+        <v>0.0186149115094647</v>
       </c>
       <c r="J10">
-        <v>0.1291164761897363</v>
+        <v>0.8990296392079244</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.409802841685362</v>
       </c>
       <c r="L10">
-        <v>0.1285222634307388</v>
+        <v>0.1917854298145087</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1520353001496773</v>
       </c>
       <c r="O10">
-        <v>5.089659024545028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="Q10">
+        <v>5.223704573554983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1511180875010183</v>
+        <v>0.2289756625383319</v>
       </c>
       <c r="D11">
-        <v>0.09722430871241272</v>
+        <v>0.09509314489627485</v>
       </c>
       <c r="E11">
-        <v>0.1044775171239252</v>
+        <v>0.1129957860513464</v>
       </c>
       <c r="F11">
-        <v>1.983575941216102</v>
+        <v>1.877533958586312</v>
       </c>
       <c r="G11">
-        <v>1.701815778802853</v>
+        <v>1.571148424601546</v>
       </c>
       <c r="H11">
-        <v>0.8920893317384468</v>
+        <v>0.02676148316067994</v>
       </c>
       <c r="I11">
-        <v>1.423269286519243</v>
+        <v>0.02085289450242644</v>
       </c>
       <c r="J11">
-        <v>0.1356141410292793</v>
+        <v>0.8811847535467621</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.370146428102842</v>
       </c>
       <c r="L11">
-        <v>0.1342517679342592</v>
+        <v>0.1545960600727341</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1145490291101794</v>
       </c>
       <c r="O11">
-        <v>5.427997976744621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="Q11">
+        <v>5.125565956581909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.153816217267206</v>
+        <v>0.2146094370154117</v>
       </c>
       <c r="D12">
-        <v>0.09864728591999494</v>
+        <v>0.08559296703666774</v>
       </c>
       <c r="E12">
-        <v>0.1062503326363284</v>
+        <v>0.09515247681001959</v>
       </c>
       <c r="F12">
-        <v>2.029628458515802</v>
+        <v>1.788347733413403</v>
       </c>
       <c r="G12">
-        <v>1.744410159440548</v>
+        <v>1.507032861601431</v>
       </c>
       <c r="H12">
-        <v>0.9107676576418555</v>
+        <v>0.06508945956292678</v>
       </c>
       <c r="I12">
-        <v>1.456577809854323</v>
+        <v>0.02094714484938365</v>
       </c>
       <c r="J12">
-        <v>0.1381079407309045</v>
+        <v>0.8480372129608895</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.306966151070625</v>
       </c>
       <c r="L12">
-        <v>0.136452520655439</v>
+        <v>0.1268296707285685</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08697229570160658</v>
       </c>
       <c r="O12">
-        <v>5.557503203838792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="Q12">
+        <v>4.920330508730842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1532336453876297</v>
+        <v>0.1981374280216954</v>
       </c>
       <c r="D13">
-        <v>0.09833996091889929</v>
+        <v>0.07597239901596708</v>
       </c>
       <c r="E13">
-        <v>0.1058674489939158</v>
+        <v>0.07948629763747661</v>
       </c>
       <c r="F13">
-        <v>2.019687227724106</v>
+        <v>1.662704204488904</v>
       </c>
       <c r="G13">
-        <v>1.735216700901503</v>
+        <v>1.407894713533494</v>
       </c>
       <c r="H13">
-        <v>0.9067345367438406</v>
+        <v>0.1199875390424552</v>
       </c>
       <c r="I13">
-        <v>1.449387649722283</v>
+        <v>0.01962274819460585</v>
       </c>
       <c r="J13">
-        <v>0.1375693247877479</v>
+        <v>0.7991259295190503</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.217403799866545</v>
       </c>
       <c r="L13">
-        <v>0.1359771205641493</v>
+        <v>0.1042543823786843</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06604891835105775</v>
       </c>
       <c r="O13">
-        <v>5.529547847204981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="Q13">
+        <v>4.607772090766332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1513394009816693</v>
+        <v>0.1855991709863574</v>
       </c>
       <c r="D14">
-        <v>0.09734099191580015</v>
+        <v>0.06933341772968049</v>
       </c>
       <c r="E14">
-        <v>0.1046228859116596</v>
+        <v>0.06995893333776593</v>
       </c>
       <c r="F14">
-        <v>1.987354428980751</v>
+        <v>1.558347804973451</v>
       </c>
       <c r="G14">
-        <v>1.705311109801244</v>
+        <v>1.322535576978964</v>
       </c>
       <c r="H14">
-        <v>0.893621353454904</v>
+        <v>0.1685590282968832</v>
       </c>
       <c r="I14">
-        <v>1.426002190206916</v>
+        <v>0.01817148687609116</v>
       </c>
       <c r="J14">
-        <v>0.1358186220532929</v>
+        <v>0.7576635296156837</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.142530133765632</v>
       </c>
       <c r="L14">
-        <v>0.1344321855631705</v>
+        <v>0.09172294852450591</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05547430625997052</v>
       </c>
       <c r="O14">
-        <v>5.438623805962095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="Q14">
+        <v>4.339982091118998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1501834095218015</v>
+        <v>0.1816946845819274</v>
       </c>
       <c r="D15">
-        <v>0.09673159141641463</v>
+        <v>0.06764221158194772</v>
       </c>
       <c r="E15">
-        <v>0.103863669809293</v>
+        <v>0.06772109399295623</v>
       </c>
       <c r="F15">
-        <v>1.967616031647012</v>
+        <v>1.524423851992168</v>
       </c>
       <c r="G15">
-        <v>1.687050730298694</v>
+        <v>1.293533122354546</v>
       </c>
       <c r="H15">
-        <v>0.8856192182974212</v>
+        <v>0.1807257424414246</v>
       </c>
       <c r="I15">
-        <v>1.411725751583404</v>
+        <v>0.01761394108378944</v>
       </c>
       <c r="J15">
-        <v>0.134750694917237</v>
+        <v>0.7438501688913561</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.11774533324683</v>
       </c>
       <c r="L15">
-        <v>0.1334900030506887</v>
+        <v>0.08893776770848838</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05345108697338752</v>
       </c>
       <c r="O15">
-        <v>5.383115109067944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="Q15">
+        <v>4.249554889589035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1436224741824503</v>
+        <v>0.1760185634737681</v>
       </c>
       <c r="D16">
-        <v>0.09327653871037</v>
+        <v>0.0665137439585024</v>
       </c>
       <c r="E16">
-        <v>0.09955909057100243</v>
+        <v>0.06677318899304119</v>
       </c>
       <c r="F16">
-        <v>1.855479220650892</v>
+        <v>1.45345878342556</v>
       </c>
       <c r="G16">
-        <v>1.58325322335142</v>
+        <v>1.225196447586882</v>
       </c>
       <c r="H16">
-        <v>0.8402054135068227</v>
+        <v>0.1663853924240186</v>
       </c>
       <c r="I16">
-        <v>1.330616321515294</v>
+        <v>0.01499415118401437</v>
       </c>
       <c r="J16">
-        <v>0.1286963221296631</v>
+        <v>0.7135220046464212</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.065856707323093</v>
       </c>
       <c r="L16">
-        <v>0.1281520307526876</v>
+        <v>0.08744153693808698</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0535938898046382</v>
       </c>
       <c r="O16">
-        <v>5.067732859282444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="Q16">
+        <v>4.041020075985728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1396520330734603</v>
+        <v>0.1780852616290218</v>
       </c>
       <c r="D17">
-        <v>0.09118899126245594</v>
+        <v>0.0690872467924919</v>
       </c>
       <c r="E17">
-        <v>0.09695793466037728</v>
+        <v>0.07075459319149857</v>
       </c>
       <c r="F17">
-        <v>1.787514188954859</v>
+        <v>1.453934206215067</v>
       </c>
       <c r="G17">
-        <v>1.520290689516656</v>
+        <v>1.21772657279368</v>
       </c>
       <c r="H17">
-        <v>0.8127223847936591</v>
+        <v>0.127805908789199</v>
       </c>
       <c r="I17">
-        <v>1.281454027394872</v>
+        <v>0.01378796559706785</v>
       </c>
       <c r="J17">
-        <v>0.1250380701416418</v>
+        <v>0.71213068709298</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.065367975150608</v>
       </c>
       <c r="L17">
-        <v>0.1249298592417887</v>
+        <v>0.09222456722848982</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05865375377249116</v>
       </c>
       <c r="O17">
-        <v>4.876554585693157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="Q17">
+        <v>4.022155874054533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1373874934458712</v>
+        <v>0.1882976804259044</v>
       </c>
       <c r="D18">
-        <v>0.08999960964542453</v>
+        <v>0.07543932616538029</v>
       </c>
       <c r="E18">
-        <v>0.09547572632969192</v>
+        <v>0.08099811195167916</v>
       </c>
       <c r="F18">
-        <v>1.748709787895805</v>
+        <v>1.5184149499988</v>
       </c>
       <c r="G18">
-        <v>1.484323136773554</v>
+        <v>1.263996026020976</v>
       </c>
       <c r="H18">
-        <v>0.7970462363079776</v>
+        <v>0.0748620416963135</v>
       </c>
       <c r="I18">
-        <v>1.25338395603795</v>
+        <v>0.01335945714837106</v>
       </c>
       <c r="J18">
-        <v>0.1229535179646035</v>
+        <v>0.7364997111895661</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.111731155570226</v>
       </c>
       <c r="L18">
-        <v>0.1230950034995502</v>
+        <v>0.1063011136550358</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07188485632999786</v>
       </c>
       <c r="O18">
-        <v>4.767390760009107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>10.55149949033279</v>
+      </c>
+      <c r="Q18">
+        <v>4.171186593485402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1366239688364601</v>
+        <v>0.2033560885799517</v>
       </c>
       <c r="D19">
-        <v>0.08959880874855486</v>
+        <v>0.08497252638454711</v>
       </c>
       <c r="E19">
-        <v>0.09497620658100914</v>
+        <v>0.09765708416708918</v>
       </c>
       <c r="F19">
-        <v>1.735619088888782</v>
+        <v>1.626097013372075</v>
       </c>
       <c r="G19">
-        <v>1.472186109607719</v>
+        <v>1.346097623380956</v>
       </c>
       <c r="H19">
-        <v>0.7917604680335728</v>
+        <v>0.03020785671832726</v>
       </c>
       <c r="I19">
-        <v>1.243914311065168</v>
+        <v>0.01404082948868535</v>
       </c>
       <c r="J19">
-        <v>0.122250997828516</v>
+        <v>0.7776905366361007</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.187967900443098</v>
       </c>
       <c r="L19">
-        <v>0.1224768446024669</v>
+        <v>0.1313582203493375</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.09629545378102122</v>
       </c>
       <c r="O19">
-        <v>4.730562231343072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="Q19">
+        <v>4.43143867587014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1400726918810875</v>
+        <v>0.234749170954899</v>
       </c>
       <c r="D20">
-        <v>0.09141003280265636</v>
+        <v>0.1030240261779838</v>
       </c>
       <c r="E20">
-        <v>0.09723337881631622</v>
+        <v>0.1318457697334772</v>
       </c>
       <c r="F20">
-        <v>1.794719080915669</v>
+        <v>1.861816036586163</v>
       </c>
       <c r="G20">
-        <v>1.526967270949797</v>
+        <v>1.536046305992215</v>
       </c>
       <c r="H20">
-        <v>0.8156342474576661</v>
+        <v>0.006747490723541638</v>
       </c>
       <c r="I20">
-        <v>1.286665769149764</v>
+        <v>0.01722449248782976</v>
       </c>
       <c r="J20">
-        <v>0.1254254497570813</v>
+        <v>0.8696433961202672</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.356346154018979</v>
       </c>
       <c r="L20">
-        <v>0.1252709366222504</v>
+        <v>0.1863941515345786</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.149979710893156</v>
       </c>
       <c r="O20">
-        <v>4.896822313794075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="Q20">
+        <v>5.026704847955273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1518948876681208</v>
+        <v>0.2553447184609752</v>
       </c>
       <c r="D21">
-        <v>0.09763389031623149</v>
+        <v>0.1115027288512991</v>
       </c>
       <c r="E21">
-        <v>0.1049877913507409</v>
+        <v>0.1451577940255433</v>
       </c>
       <c r="F21">
-        <v>1.996837422120734</v>
+        <v>2.065945902253105</v>
       </c>
       <c r="G21">
-        <v>1.71408299709762</v>
+        <v>1.718481270424604</v>
       </c>
       <c r="H21">
-        <v>0.8974667039330484</v>
+        <v>0.01044894972303376</v>
       </c>
       <c r="I21">
-        <v>1.432861025362172</v>
+        <v>0.02327416415490902</v>
       </c>
       <c r="J21">
-        <v>0.1363319170704855</v>
+        <v>0.9534282729862298</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.503618875506803</v>
       </c>
       <c r="L21">
-        <v>0.134885103662242</v>
+        <v>0.2070651477895993</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1669989718778169</v>
       </c>
       <c r="O21">
-        <v>5.465291578067422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="Q21">
+        <v>5.589150084821426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.159810919506242</v>
+        <v>0.2688857238895537</v>
       </c>
       <c r="D22">
-        <v>0.1018120775810587</v>
+        <v>0.1162180273263118</v>
       </c>
       <c r="E22">
-        <v>0.1101934269313141</v>
+        <v>0.1523636381021518</v>
       </c>
       <c r="F22">
-        <v>2.131858444109881</v>
+        <v>2.194948432541466</v>
       </c>
       <c r="G22">
-        <v>1.838912118160522</v>
+        <v>1.835073650442837</v>
       </c>
       <c r="H22">
-        <v>0.9522751874529831</v>
+        <v>0.01322148166233966</v>
       </c>
       <c r="I22">
-        <v>1.530515612914655</v>
+        <v>0.02735849745281627</v>
       </c>
       <c r="J22">
-        <v>0.1436554956489076</v>
+        <v>1.006935358609439</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.597913422393162</v>
       </c>
       <c r="L22">
-        <v>0.1413512761137099</v>
+        <v>0.2181858408326605</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1748907153040236</v>
       </c>
       <c r="O22">
-        <v>5.84496396474708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.95085643057945</v>
+      </c>
+      <c r="Q22">
+        <v>5.948516155513516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1555676758849103</v>
+        <v>0.2630839061045691</v>
       </c>
       <c r="D23">
-        <v>0.09957149218404737</v>
+        <v>0.1136477091197108</v>
       </c>
       <c r="E23">
-        <v>0.1074017794621867</v>
+        <v>0.1486999139292244</v>
       </c>
       <c r="F23">
-        <v>2.059508832484113</v>
+        <v>2.129505602948313</v>
       </c>
       <c r="G23">
-        <v>1.772038858350243</v>
+        <v>1.776166515706137</v>
       </c>
       <c r="H23">
-        <v>0.9228935273666536</v>
+        <v>0.01173125031919675</v>
       </c>
       <c r="I23">
-        <v>1.478189098104792</v>
+        <v>0.02493601427931669</v>
       </c>
       <c r="J23">
-        <v>0.1397277859171666</v>
+        <v>0.9800155871918719</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.551359943573814</v>
       </c>
       <c r="L23">
-        <v>0.1378824957001896</v>
+        <v>0.2126800899262804</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1702365245754436</v>
       </c>
       <c r="O23">
-        <v>5.641526862333592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="Q23">
+        <v>5.767184037509423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1398824557995084</v>
+        <v>0.2386511798340933</v>
       </c>
       <c r="D24">
-        <v>0.09131006645862527</v>
+        <v>0.1040865809471967</v>
       </c>
       <c r="E24">
-        <v>0.09710880945113587</v>
+        <v>0.1345395827589364</v>
       </c>
       <c r="F24">
-        <v>1.7914609134546</v>
+        <v>1.877704957647666</v>
       </c>
       <c r="G24">
-        <v>1.523948074348823</v>
+        <v>1.549002321509079</v>
       </c>
       <c r="H24">
-        <v>0.8143174091392495</v>
+        <v>0.006774258701515878</v>
       </c>
       <c r="I24">
-        <v>1.28430893933853</v>
+        <v>0.01691696015861144</v>
       </c>
       <c r="J24">
-        <v>0.125250257646492</v>
+        <v>0.8761383543373711</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.369659322770758</v>
       </c>
       <c r="L24">
-        <v>0.1251166808745623</v>
+        <v>0.1911069897294126</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1534561631362052</v>
       </c>
       <c r="O24">
-        <v>4.887656958106618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>10.82576172529139</v>
+      </c>
+      <c r="Q24">
+        <v>5.067761981952401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1236863284153884</v>
+        <v>0.2119946336221403</v>
       </c>
       <c r="D25">
-        <v>0.08282677994875343</v>
+        <v>0.09394459872358141</v>
       </c>
       <c r="E25">
-        <v>0.08653113980596316</v>
+        <v>0.1192673595953266</v>
       </c>
       <c r="F25">
-        <v>1.513134036364278</v>
+        <v>1.609336974735953</v>
       </c>
       <c r="G25">
-        <v>1.265614643357424</v>
+        <v>1.306654636197237</v>
       </c>
       <c r="H25">
-        <v>0.7021473085824539</v>
+        <v>0.002812089357779879</v>
       </c>
       <c r="I25">
-        <v>1.082954729909503</v>
+        <v>0.009887784357881735</v>
       </c>
       <c r="J25">
-        <v>0.1103721084549818</v>
+        <v>0.7656214110819519</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.175214312730091</v>
       </c>
       <c r="L25">
-        <v>0.112043179328154</v>
+        <v>0.1677536578009438</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1355789300985961</v>
       </c>
       <c r="O25">
-        <v>4.10444564456094</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="Q25">
+        <v>4.322181902306909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1954449466616097</v>
+        <v>0.1290365645517824</v>
       </c>
       <c r="D2">
-        <v>0.08648202564335605</v>
+        <v>0.0882967630413134</v>
       </c>
       <c r="E2">
-        <v>0.1084268109720092</v>
+        <v>0.09921232923506196</v>
       </c>
       <c r="F2">
-        <v>1.422168031617005</v>
+        <v>1.264873158664088</v>
       </c>
       <c r="G2">
-        <v>1.137960904176936</v>
+        <v>0.9633935852171618</v>
       </c>
       <c r="H2">
-        <v>0.0009396797436782567</v>
+        <v>0.0007479756230623913</v>
       </c>
       <c r="I2">
-        <v>0.005377594914510286</v>
+        <v>0.005004310932718248</v>
       </c>
       <c r="J2">
-        <v>0.6892836669894677</v>
+        <v>0.6627214699238522</v>
       </c>
       <c r="K2">
-        <v>1.042039572899853</v>
+        <v>0.8692097331663575</v>
       </c>
       <c r="L2">
-        <v>0.1514535694050352</v>
+        <v>0.3960266913890607</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2717902941308026</v>
       </c>
       <c r="N2">
-        <v>0.1215248963212332</v>
+        <v>0.1310280591960407</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.663121664604034</v>
+        <v>0.1465212397178135</v>
       </c>
       <c r="Q2">
-        <v>3.804381601200078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>7.663121664602784</v>
+      </c>
+      <c r="S2">
+        <v>3.326545193051686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1820179036015546</v>
+        <v>0.1225041608114026</v>
       </c>
       <c r="D3">
-        <v>0.08155607911643159</v>
+        <v>0.08321948678533886</v>
       </c>
       <c r="E3">
-        <v>0.1007880530107386</v>
+        <v>0.09287938458888334</v>
       </c>
       <c r="F3">
-        <v>1.291522143230694</v>
+        <v>1.15638822603384</v>
       </c>
       <c r="G3">
-        <v>1.019736084564215</v>
+        <v>0.8674572724194007</v>
       </c>
       <c r="H3">
-        <v>0.000212815148425527</v>
+        <v>0.0001675913066705448</v>
       </c>
       <c r="I3">
-        <v>0.003211151040017679</v>
+        <v>0.003204418440371448</v>
       </c>
       <c r="J3">
-        <v>0.6357505283868647</v>
+        <v>0.6167291271985533</v>
       </c>
       <c r="K3">
-        <v>0.946893656425118</v>
+        <v>0.7976123895743044</v>
       </c>
       <c r="L3">
-        <v>0.1397048342087643</v>
+        <v>0.3808902185642182</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2337343616571488</v>
       </c>
       <c r="N3">
-        <v>0.1126638922972916</v>
+        <v>0.1220760825984719</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0.1349384878079292</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6.74968365211538</v>
       </c>
-      <c r="Q3">
-        <v>3.441410314719292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>3.031213857174464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1735891502418525</v>
+        <v>0.1183383951514045</v>
       </c>
       <c r="D4">
-        <v>0.07856131634385122</v>
+        <v>0.08013991134286158</v>
       </c>
       <c r="E4">
-        <v>0.09606626360354298</v>
+        <v>0.08895322674946193</v>
       </c>
       <c r="F4">
-        <v>1.211573774519394</v>
+        <v>1.089795284964723</v>
       </c>
       <c r="G4">
-        <v>0.9473055107104074</v>
+        <v>0.8086116379975437</v>
       </c>
       <c r="H4">
-        <v>1.889179504388494E-05</v>
+        <v>1.407975254386074E-05</v>
       </c>
       <c r="I4">
-        <v>0.002169382131859798</v>
+        <v>0.00231624541584674</v>
       </c>
       <c r="J4">
-        <v>0.6030299654400864</v>
+        <v>0.5883443170159808</v>
       </c>
       <c r="K4">
-        <v>0.8884464864600119</v>
+        <v>0.7534003753398508</v>
       </c>
       <c r="L4">
-        <v>0.1324116705713863</v>
+        <v>0.3711144959476584</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2111806798153566</v>
       </c>
       <c r="N4">
-        <v>0.1072654720135588</v>
+        <v>0.1164865535625417</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0.1279107055091657</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6.187481969423061</v>
       </c>
-      <c r="Q4">
-        <v>3.219184464874132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>2.849746810752265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1697556322588483</v>
+        <v>0.1163831807593709</v>
       </c>
       <c r="D5">
-        <v>0.07735971746910764</v>
+        <v>0.07890650503247087</v>
       </c>
       <c r="E5">
-        <v>0.09408805760917005</v>
+        <v>0.08730159228705858</v>
       </c>
       <c r="F5">
-        <v>1.178197253718139</v>
+        <v>1.061866189295543</v>
       </c>
       <c r="G5">
-        <v>0.916993911357963</v>
+        <v>0.783887374109753</v>
       </c>
       <c r="H5">
-        <v>1.814134176214566E-09</v>
+        <v>1.303995045276451E-08</v>
       </c>
       <c r="I5">
-        <v>0.001869327273338772</v>
+        <v>0.002075074428084633</v>
       </c>
       <c r="J5">
-        <v>0.5893175444897594</v>
+        <v>0.5763491098013702</v>
       </c>
       <c r="K5">
-        <v>0.8636825696366159</v>
+        <v>0.7344845691675204</v>
       </c>
       <c r="L5">
-        <v>0.129312889789766</v>
+        <v>0.3666554739302512</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2019165052110026</v>
       </c>
       <c r="N5">
-        <v>0.1051806304432077</v>
+        <v>0.1140916612770084</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0.1251860946201333</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5.958052239810286</v>
       </c>
-      <c r="Q5">
-        <v>3.126143775570199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>2.773348304317096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1686870455204001</v>
+        <v>0.1157911751558913</v>
       </c>
       <c r="D6">
-        <v>0.07717508960319464</v>
+        <v>0.07871754630416916</v>
       </c>
       <c r="E6">
-        <v>0.09370338966206404</v>
+        <v>0.08697558314239195</v>
       </c>
       <c r="F6">
-        <v>1.171613491507912</v>
+        <v>1.056262473057373</v>
       </c>
       <c r="G6">
-        <v>0.9109516093007954</v>
+        <v>0.7788634099165819</v>
       </c>
       <c r="H6">
-        <v>5.176985726773609E-07</v>
+        <v>6.392734248628074E-07</v>
       </c>
       <c r="I6">
-        <v>0.001899527768842724</v>
+        <v>0.002131574747221698</v>
       </c>
       <c r="J6">
-        <v>0.5865388308127706</v>
+        <v>0.5738771754310505</v>
       </c>
       <c r="K6">
-        <v>0.8584276026104192</v>
+        <v>0.7303206958693167</v>
       </c>
       <c r="L6">
-        <v>0.1286675880732275</v>
+        <v>0.3654757078619895</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2000526177661044</v>
       </c>
       <c r="N6">
-        <v>0.1049645523793572</v>
+        <v>0.1135786405655068</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0.1248813730759011</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5.919936152110608</v>
       </c>
-      <c r="Q6">
-        <v>3.107504488662187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>2.757725961746218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1723610810920206</v>
+        <v>0.1176677527992709</v>
       </c>
       <c r="D7">
-        <v>0.07858480586686767</v>
+        <v>0.08027620417524872</v>
       </c>
       <c r="E7">
-        <v>0.09588748983218665</v>
+        <v>0.08881825594083459</v>
       </c>
       <c r="F7">
-        <v>1.208263164008827</v>
+        <v>1.085317724213553</v>
       </c>
       <c r="G7">
-        <v>0.9441285525718115</v>
+        <v>0.8108061351876188</v>
       </c>
       <c r="H7">
-        <v>1.744358028754611E-05</v>
+        <v>1.264171278925197E-05</v>
       </c>
       <c r="I7">
-        <v>0.00235587334057108</v>
+        <v>0.00254504483600293</v>
       </c>
       <c r="J7">
-        <v>0.6014664222939388</v>
+        <v>0.5791775145275295</v>
       </c>
       <c r="K7">
-        <v>0.884985298421725</v>
+        <v>0.7493391605423625</v>
       </c>
       <c r="L7">
-        <v>0.1320157395921626</v>
+        <v>0.3694642945438176</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2097701057534564</v>
       </c>
       <c r="N7">
-        <v>0.1075917467530232</v>
+        <v>0.1161118150416733</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0.1282567362133875</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.184389112219776</v>
       </c>
-      <c r="Q7">
-        <v>3.209174981898002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>2.835816497897639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1892842852964804</v>
+        <v>0.1261337439030754</v>
       </c>
       <c r="D8">
-        <v>0.08483029299767963</v>
+        <v>0.08696751665061697</v>
       </c>
       <c r="E8">
-        <v>0.1055972642680167</v>
+        <v>0.09694371409913316</v>
       </c>
       <c r="F8">
-        <v>1.373245347315034</v>
+        <v>1.219087554758829</v>
       </c>
       <c r="G8">
-        <v>1.093462843293651</v>
+        <v>0.9438521772318609</v>
       </c>
       <c r="H8">
-        <v>0.0006274662703946721</v>
+        <v>0.0004925272961029403</v>
       </c>
       <c r="I8">
-        <v>0.004784951341576971</v>
+        <v>0.004593950269720537</v>
       </c>
       <c r="J8">
-        <v>0.6689556050624788</v>
+        <v>0.619714982721689</v>
       </c>
       <c r="K8">
-        <v>1.005064680112611</v>
+        <v>0.8374847217797665</v>
       </c>
       <c r="L8">
-        <v>0.1469472862138375</v>
+        <v>0.3880777440820466</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2559728309823441</v>
       </c>
       <c r="N8">
-        <v>0.1189326932324661</v>
+        <v>0.1274469703923202</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0.1429861573344411</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.348453399592813</v>
       </c>
-      <c r="Q8">
-        <v>3.667400687825193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>3.197819168282791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2231626629387904</v>
+        <v>0.1425290407284621</v>
       </c>
       <c r="D9">
-        <v>0.09726683771971523</v>
+        <v>0.09993167667061442</v>
       </c>
       <c r="E9">
-        <v>0.1246903366750871</v>
+        <v>0.1127488824003144</v>
       </c>
       <c r="F9">
-        <v>1.704600040474958</v>
+        <v>1.491929619876188</v>
       </c>
       <c r="G9">
-        <v>1.3930662650084</v>
+        <v>1.19174671796182</v>
       </c>
       <c r="H9">
-        <v>0.003999755482230305</v>
+        <v>0.003174820982281612</v>
       </c>
       <c r="I9">
-        <v>0.01177063171910309</v>
+        <v>0.0101436990998387</v>
       </c>
       <c r="J9">
-        <v>0.8051870832127008</v>
+        <v>0.7280184169484301</v>
       </c>
       <c r="K9">
-        <v>1.246267296367023</v>
+        <v>1.017190658510557</v>
       </c>
       <c r="L9">
-        <v>0.1762813360835196</v>
+        <v>0.4242970623761551</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3561843886917799</v>
       </c>
       <c r="N9">
-        <v>0.1409248183352503</v>
+        <v>0.1496345622798003</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0.1719389840290546</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.620230281550789</v>
       </c>
-      <c r="Q9">
-        <v>4.588356628412271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>3.939688080125507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2439647531547706</v>
+        <v>0.1527681636690801</v>
       </c>
       <c r="D10">
-        <v>0.1050096067474087</v>
+        <v>0.1087025208526384</v>
       </c>
       <c r="E10">
-        <v>0.1352166645662827</v>
+        <v>0.1212981682927214</v>
       </c>
       <c r="F10">
-        <v>1.931379750606709</v>
+        <v>1.668130637262365</v>
       </c>
       <c r="G10">
-        <v>1.599906189859695</v>
+        <v>1.392733941212157</v>
       </c>
       <c r="H10">
-        <v>0.007977056071730715</v>
+        <v>0.006332141007404424</v>
       </c>
       <c r="I10">
-        <v>0.0186149115094647</v>
+        <v>0.01548047580486234</v>
       </c>
       <c r="J10">
-        <v>0.8990296392079244</v>
+        <v>0.7568699851315728</v>
       </c>
       <c r="K10">
-        <v>1.409802841685362</v>
+        <v>1.131016893536639</v>
       </c>
       <c r="L10">
-        <v>0.1917854298145087</v>
+        <v>0.4424121104008876</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4270819279154026</v>
       </c>
       <c r="N10">
-        <v>0.1520353001496773</v>
+        <v>0.1605165423681285</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0.1872542960285202</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>11.28258838837513</v>
       </c>
-      <c r="Q10">
-        <v>5.223704573554983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>4.417360529702876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2289756625383319</v>
+        <v>0.1466355951124072</v>
       </c>
       <c r="D11">
-        <v>0.09509314489627485</v>
+        <v>0.09966458843997117</v>
       </c>
       <c r="E11">
-        <v>0.1129957860513464</v>
+        <v>0.1010915835588335</v>
       </c>
       <c r="F11">
-        <v>1.877533958586312</v>
+        <v>1.599304592638134</v>
       </c>
       <c r="G11">
-        <v>1.571148424601546</v>
+        <v>1.432355154930008</v>
       </c>
       <c r="H11">
-        <v>0.02676148316067994</v>
+        <v>0.0249434900320793</v>
       </c>
       <c r="I11">
-        <v>0.02085289450242644</v>
+        <v>0.01731645061329967</v>
       </c>
       <c r="J11">
-        <v>0.8811847535467621</v>
+        <v>0.6518149913760141</v>
       </c>
       <c r="K11">
-        <v>1.370146428102842</v>
+        <v>1.082558571657628</v>
       </c>
       <c r="L11">
-        <v>0.1545960600727341</v>
+        <v>0.4149019218968917</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.419670982973102</v>
       </c>
       <c r="N11">
-        <v>0.1145490291101794</v>
+        <v>0.1286276167900979</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0.1426256659951619</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>12.03742316731751</v>
       </c>
-      <c r="Q11">
-        <v>5.125565956581909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>4.263554110101438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2146094370154117</v>
+        <v>0.1406432404918334</v>
       </c>
       <c r="D12">
-        <v>0.08559296703666774</v>
+        <v>0.09015389646683758</v>
       </c>
       <c r="E12">
-        <v>0.09515247681001959</v>
+        <v>0.08513401166530699</v>
       </c>
       <c r="F12">
-        <v>1.788347733413403</v>
+        <v>1.51377692323392</v>
       </c>
       <c r="G12">
-        <v>1.507032861601431</v>
+        <v>1.406815881639318</v>
       </c>
       <c r="H12">
-        <v>0.06508945956292678</v>
+        <v>0.06329836973706193</v>
       </c>
       <c r="I12">
-        <v>0.02094714484938365</v>
+        <v>0.01736042845246288</v>
       </c>
       <c r="J12">
-        <v>0.8480372129608895</v>
+        <v>0.5885350156703453</v>
       </c>
       <c r="K12">
-        <v>1.306966151070625</v>
+        <v>1.02603114566449</v>
       </c>
       <c r="L12">
-        <v>0.1268296707285685</v>
+        <v>0.3913392861071259</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4011849259375566</v>
       </c>
       <c r="N12">
-        <v>0.08697229570160658</v>
+        <v>0.1062548348634138</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0.1082336257014092</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>12.32306348037548</v>
       </c>
-      <c r="Q12">
-        <v>4.920330508730842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>4.063154838308208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1981374280216954</v>
+        <v>0.1332781844893169</v>
       </c>
       <c r="D13">
-        <v>0.07597239901596708</v>
+        <v>0.07970482628486764</v>
       </c>
       <c r="E13">
-        <v>0.07948629763747661</v>
+        <v>0.07136075920688789</v>
       </c>
       <c r="F13">
-        <v>1.662704204488904</v>
+        <v>1.409611325778826</v>
       </c>
       <c r="G13">
-        <v>1.407894713533494</v>
+        <v>1.312763182757237</v>
       </c>
       <c r="H13">
-        <v>0.1199875390424552</v>
+        <v>0.1183922799904735</v>
       </c>
       <c r="I13">
-        <v>0.01962274819460585</v>
+        <v>0.01636905624945495</v>
       </c>
       <c r="J13">
-        <v>0.7991259295190503</v>
+        <v>0.5625139947958075</v>
       </c>
       <c r="K13">
-        <v>1.217403799866545</v>
+        <v>0.9579653683087272</v>
       </c>
       <c r="L13">
-        <v>0.1042543823786843</v>
+        <v>0.3682172987730681</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3726242122650447</v>
       </c>
       <c r="N13">
-        <v>0.06604891835105775</v>
+        <v>0.08939698356158843</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0.08056179590715828</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>12.26155457991888</v>
       </c>
-      <c r="Q13">
-        <v>4.607772090766332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>3.813779665769914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1855991709863574</v>
+        <v>0.1275452250721116</v>
       </c>
       <c r="D14">
-        <v>0.06933341772968049</v>
+        <v>0.07221597330880059</v>
       </c>
       <c r="E14">
-        <v>0.06995893333776593</v>
+        <v>0.06317600191181683</v>
       </c>
       <c r="F14">
-        <v>1.558347804973451</v>
+        <v>1.327624973751298</v>
       </c>
       <c r="G14">
-        <v>1.322535576978964</v>
+        <v>1.217613619462867</v>
       </c>
       <c r="H14">
-        <v>0.1685590282968832</v>
+        <v>0.1671618425410912</v>
       </c>
       <c r="I14">
-        <v>0.01817148687609116</v>
+        <v>0.01532050984696909</v>
       </c>
       <c r="J14">
-        <v>0.7576635296156837</v>
+        <v>0.5585409183296406</v>
       </c>
       <c r="K14">
-        <v>1.142530133765632</v>
+        <v>0.9043563822093503</v>
       </c>
       <c r="L14">
-        <v>0.09172294852450591</v>
+        <v>0.3517610428622859</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3480002766337691</v>
       </c>
       <c r="N14">
-        <v>0.05547430625997052</v>
+        <v>0.08089339847142174</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0.06539919964582097</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>12.06092695796559</v>
       </c>
-      <c r="Q14">
-        <v>4.339982091118998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>3.614516952648501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1816946845819274</v>
+        <v>0.1256730427367323</v>
       </c>
       <c r="D15">
-        <v>0.06764221158194772</v>
+        <v>0.07020955746698831</v>
       </c>
       <c r="E15">
-        <v>0.06772109399295623</v>
+        <v>0.06129513812132981</v>
       </c>
       <c r="F15">
-        <v>1.524423851992168</v>
+        <v>1.302463002485709</v>
       </c>
       <c r="G15">
-        <v>1.293533122354546</v>
+        <v>1.18091410273226</v>
       </c>
       <c r="H15">
-        <v>0.1807257424414246</v>
+        <v>0.1794139524715916</v>
       </c>
       <c r="I15">
-        <v>0.01761394108378944</v>
+        <v>0.01495994186174343</v>
       </c>
       <c r="J15">
-        <v>0.7438501688913561</v>
+        <v>0.5632095843647988</v>
       </c>
       <c r="K15">
-        <v>1.11774533324683</v>
+        <v>0.8876399362692453</v>
       </c>
       <c r="L15">
-        <v>0.08893776770848838</v>
+        <v>0.3473013249453203</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3395013635872317</v>
       </c>
       <c r="N15">
-        <v>0.05345108697338752</v>
+        <v>0.07914916674926342</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.93801081193845</v>
+        <v>0.06229551683809476</v>
       </c>
       <c r="Q15">
-        <v>4.249554889589035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.93801081193658</v>
+      </c>
+      <c r="S15">
+        <v>3.551722278904208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1760185634737681</v>
+        <v>0.1221106689640337</v>
       </c>
       <c r="D16">
-        <v>0.0665137439585024</v>
+        <v>0.06813208947936999</v>
       </c>
       <c r="E16">
-        <v>0.06677318899304119</v>
+        <v>0.0606162067618774</v>
       </c>
       <c r="F16">
-        <v>1.45345878342556</v>
+        <v>1.259949048729013</v>
       </c>
       <c r="G16">
-        <v>1.225196447586882</v>
+        <v>1.070095120905307</v>
       </c>
       <c r="H16">
-        <v>0.1663853924240186</v>
+        <v>0.1654254121839926</v>
       </c>
       <c r="I16">
-        <v>0.01499415118401437</v>
+        <v>0.01304816306652867</v>
       </c>
       <c r="J16">
-        <v>0.7135220046464212</v>
+        <v>0.6126532747304765</v>
       </c>
       <c r="K16">
-        <v>1.065856707323093</v>
+        <v>0.8603331429134684</v>
       </c>
       <c r="L16">
-        <v>0.08744153693808698</v>
+        <v>0.3458088903215781</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3186612606072217</v>
       </c>
       <c r="N16">
-        <v>0.0535938898046382</v>
+        <v>0.07820546334797651</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.23323027560713</v>
+        <v>0.06250845818701123</v>
       </c>
       <c r="Q16">
-        <v>4.041020075985728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.23323027560724</v>
+      </c>
+      <c r="S16">
+        <v>3.436562785454612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1780852616290218</v>
+        <v>0.1223164357418831</v>
       </c>
       <c r="D17">
-        <v>0.0690872467924919</v>
+        <v>0.07047522987745936</v>
       </c>
       <c r="E17">
-        <v>0.07075459319149857</v>
+        <v>0.06409442928181974</v>
       </c>
       <c r="F17">
-        <v>1.453934206215067</v>
+        <v>1.268809375995431</v>
       </c>
       <c r="G17">
-        <v>1.21772657279368</v>
+        <v>1.042207979006335</v>
       </c>
       <c r="H17">
-        <v>0.127805908789199</v>
+        <v>0.1269994669672911</v>
       </c>
       <c r="I17">
-        <v>0.01378796559706785</v>
+        <v>0.01215746180336552</v>
       </c>
       <c r="J17">
-        <v>0.71213068709298</v>
+        <v>0.6446742602763891</v>
       </c>
       <c r="K17">
-        <v>1.065367975150608</v>
+        <v>0.8663723516447988</v>
       </c>
       <c r="L17">
-        <v>0.09222456722848982</v>
+        <v>0.3531346834957958</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3149976978224487</v>
       </c>
       <c r="N17">
-        <v>0.05865375377249116</v>
+        <v>0.08138521064758564</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0.06996498128764017</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>10.80051555282938</v>
       </c>
-      <c r="Q17">
-        <v>4.022155874054533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>3.447258727287561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1882976804259044</v>
+        <v>0.1264103558661311</v>
       </c>
       <c r="D18">
-        <v>0.07543932616538029</v>
+        <v>0.07696886717245377</v>
       </c>
       <c r="E18">
-        <v>0.08099811195167916</v>
+        <v>0.07303848591719131</v>
       </c>
       <c r="F18">
-        <v>1.5184149499988</v>
+        <v>1.328384834020099</v>
       </c>
       <c r="G18">
-        <v>1.263996026020976</v>
+        <v>1.072293093241882</v>
       </c>
       <c r="H18">
-        <v>0.0748620416963135</v>
+        <v>0.07407643267060848</v>
       </c>
       <c r="I18">
-        <v>0.01335945714837106</v>
+        <v>0.01173530938765932</v>
       </c>
       <c r="J18">
-        <v>0.7364997111895661</v>
+        <v>0.679848098101786</v>
       </c>
       <c r="K18">
-        <v>1.111731155570226</v>
+        <v>0.906406117274976</v>
       </c>
       <c r="L18">
-        <v>0.1063011136550358</v>
+        <v>0.370770878051303</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3271663943116749</v>
       </c>
       <c r="N18">
-        <v>0.07188485632999786</v>
+        <v>0.09173552605168034</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>10.55149949033279</v>
+        <v>0.08793325963529952</v>
       </c>
       <c r="Q18">
-        <v>4.171186593485402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>10.55149949033284</v>
+      </c>
+      <c r="S18">
+        <v>3.584578045508238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2033560885799517</v>
+        <v>0.1329819450391376</v>
       </c>
       <c r="D19">
-        <v>0.08497252638454711</v>
+        <v>0.08687675306590137</v>
       </c>
       <c r="E19">
-        <v>0.09765708416708918</v>
+        <v>0.0877970861047217</v>
       </c>
       <c r="F19">
-        <v>1.626097013372075</v>
+        <v>1.422256578902918</v>
       </c>
       <c r="G19">
-        <v>1.346097623380956</v>
+        <v>1.13857602472558</v>
       </c>
       <c r="H19">
-        <v>0.03020785671832726</v>
+        <v>0.02932379952569875</v>
       </c>
       <c r="I19">
-        <v>0.01404082948868535</v>
+        <v>0.01230058983544779</v>
       </c>
       <c r="J19">
-        <v>0.7776905366361007</v>
+        <v>0.7189187524114971</v>
       </c>
       <c r="K19">
-        <v>1.187967900443098</v>
+        <v>0.9677326544287439</v>
       </c>
       <c r="L19">
-        <v>0.1313582203493375</v>
+        <v>0.3942833262884946</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3499129547381514</v>
       </c>
       <c r="N19">
-        <v>0.09629545378102122</v>
+        <v>0.1115069182709441</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0.1189513688280641</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10.46716465870099</v>
       </c>
-      <c r="Q19">
-        <v>4.43143867587014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>3.805876884979398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.234749170954899</v>
+        <v>0.1477342309897125</v>
       </c>
       <c r="D20">
-        <v>0.1030240261779838</v>
+        <v>0.1060355323281641</v>
       </c>
       <c r="E20">
-        <v>0.1318457697334772</v>
+        <v>0.1184030544567101</v>
       </c>
       <c r="F20">
-        <v>1.861816036586163</v>
+        <v>1.618222221399037</v>
       </c>
       <c r="G20">
-        <v>1.536046305992215</v>
+        <v>1.312581539141775</v>
       </c>
       <c r="H20">
-        <v>0.006747490723541638</v>
+        <v>0.005371796558484299</v>
       </c>
       <c r="I20">
-        <v>0.01722449248782976</v>
+        <v>0.01474413993015844</v>
       </c>
       <c r="J20">
-        <v>0.8696433961202672</v>
+        <v>0.7721465710934297</v>
       </c>
       <c r="K20">
-        <v>1.356346154018979</v>
+        <v>1.095796476190756</v>
       </c>
       <c r="L20">
-        <v>0.1863941515345786</v>
+        <v>0.4358067566137578</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4061030320797627</v>
       </c>
       <c r="N20">
-        <v>0.149979710893156</v>
+        <v>0.1566417663669881</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0.1842750271602469</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>10.84659223998074</v>
       </c>
-      <c r="Q20">
-        <v>5.026704847955273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>4.282997457969486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2553447184609752</v>
+        <v>0.1592769776496539</v>
       </c>
       <c r="D21">
-        <v>0.1115027288512991</v>
+        <v>0.1176957742700822</v>
       </c>
       <c r="E21">
-        <v>0.1451577940255433</v>
+        <v>0.1302716350030408</v>
       </c>
       <c r="F21">
-        <v>2.065945902253105</v>
+        <v>1.7506274889585</v>
       </c>
       <c r="G21">
-        <v>1.718481270424604</v>
+        <v>1.589164662146771</v>
       </c>
       <c r="H21">
-        <v>0.01044894972303376</v>
+        <v>0.008154529637014657</v>
       </c>
       <c r="I21">
-        <v>0.02327416415490902</v>
+        <v>0.01916914820365179</v>
       </c>
       <c r="J21">
-        <v>0.9534282729862298</v>
+        <v>0.6682165375997755</v>
       </c>
       <c r="K21">
-        <v>1.503618875506803</v>
+        <v>1.180491481597642</v>
       </c>
       <c r="L21">
-        <v>0.2070651477895993</v>
+        <v>0.4484292291956535</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4606417283502395</v>
       </c>
       <c r="N21">
-        <v>0.1669989718778169</v>
+        <v>0.1717972609341274</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0.2058320312847925</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>12.11986155709377</v>
       </c>
-      <c r="Q21">
-        <v>5.589150084821426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>4.616690724137186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2688857238895537</v>
+        <v>0.1671993674855017</v>
       </c>
       <c r="D22">
-        <v>0.1162180273263118</v>
+        <v>0.1247395323697944</v>
       </c>
       <c r="E22">
-        <v>0.1523636381021518</v>
+        <v>0.1367428094455221</v>
       </c>
       <c r="F22">
-        <v>2.194948432541466</v>
+        <v>1.830464523760625</v>
       </c>
       <c r="G22">
-        <v>1.835073650442837</v>
+        <v>1.781619833237983</v>
       </c>
       <c r="H22">
-        <v>0.01322148166233966</v>
+        <v>0.0102359934929035</v>
       </c>
       <c r="I22">
-        <v>0.02735849745281627</v>
+        <v>0.02198613522383308</v>
       </c>
       <c r="J22">
-        <v>1.006935358609439</v>
+        <v>0.5968115255826376</v>
       </c>
       <c r="K22">
-        <v>1.597913422393162</v>
+        <v>1.232399702067198</v>
       </c>
       <c r="L22">
-        <v>0.2181858408326605</v>
+        <v>0.4552440455364817</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4955899066617135</v>
       </c>
       <c r="N22">
-        <v>0.1748907153040236</v>
+        <v>0.1796219725106667</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0.2161050890498402</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>12.95085643057945</v>
       </c>
-      <c r="Q22">
-        <v>5.948516155513516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>4.818567646772237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2630839061045691</v>
+        <v>0.1635433468912453</v>
       </c>
       <c r="D23">
-        <v>0.1136477091197108</v>
+        <v>0.1205859594280483</v>
       </c>
       <c r="E23">
-        <v>0.1486999139292244</v>
+        <v>0.1333669236413044</v>
       </c>
       <c r="F23">
-        <v>2.129505602948313</v>
+        <v>1.794942699109967</v>
       </c>
       <c r="G23">
-        <v>1.776166515706137</v>
+        <v>1.666677069608085</v>
       </c>
       <c r="H23">
-        <v>0.01173125031919675</v>
+        <v>0.009133079584477885</v>
       </c>
       <c r="I23">
-        <v>0.02493601427931669</v>
+        <v>0.02020203074352178</v>
       </c>
       <c r="J23">
-        <v>0.9800155871918719</v>
+        <v>0.6527517377192424</v>
       </c>
       <c r="K23">
-        <v>1.551359943573814</v>
+        <v>1.210733674274437</v>
       </c>
       <c r="L23">
-        <v>0.2126800899262804</v>
+        <v>0.4537387378342004</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4793278758042234</v>
       </c>
       <c r="N23">
-        <v>0.1702365245754436</v>
+        <v>0.175888476516505</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0.21015755084521</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>12.50744471934257</v>
       </c>
-      <c r="Q23">
-        <v>5.767184037509423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>4.733500403028927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2386511798340933</v>
+        <v>0.1497395403779578</v>
       </c>
       <c r="D24">
-        <v>0.1040865809471967</v>
+        <v>0.1071191911916429</v>
       </c>
       <c r="E24">
-        <v>0.1345395827589364</v>
+        <v>0.1208539246172897</v>
       </c>
       <c r="F24">
-        <v>1.877704957647666</v>
+        <v>1.632530278087742</v>
       </c>
       <c r="G24">
-        <v>1.549002321509079</v>
+        <v>1.322826218030201</v>
       </c>
       <c r="H24">
-        <v>0.006774258701515878</v>
+        <v>0.005376749049482266</v>
       </c>
       <c r="I24">
-        <v>0.01691696015861144</v>
+        <v>0.01431062218778223</v>
       </c>
       <c r="J24">
-        <v>0.8761383543373711</v>
+        <v>0.7792869333129602</v>
       </c>
       <c r="K24">
-        <v>1.369659322770758</v>
+        <v>1.107098735192722</v>
       </c>
       <c r="L24">
-        <v>0.1911069897294126</v>
+        <v>0.4402044653643742</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4102282050813528</v>
       </c>
       <c r="N24">
-        <v>0.1534561631362052</v>
+        <v>0.1606597257625992</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0.1884006279302994</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>10.82576172529139</v>
       </c>
-      <c r="Q24">
-        <v>5.067761981952401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>4.319536891342239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2119946336221403</v>
+        <v>0.1368713777543178</v>
       </c>
       <c r="D25">
-        <v>0.09394459872358141</v>
+        <v>0.0963021665571091</v>
       </c>
       <c r="E25">
-        <v>0.1192673595953266</v>
+        <v>0.108207995266504</v>
       </c>
       <c r="F25">
-        <v>1.609336974735953</v>
+        <v>1.415318489236085</v>
       </c>
       <c r="G25">
-        <v>1.306654636197237</v>
+        <v>1.112580528409111</v>
       </c>
       <c r="H25">
-        <v>0.002812089357779879</v>
+        <v>0.002235023981254525</v>
       </c>
       <c r="I25">
-        <v>0.009887784357881735</v>
+        <v>0.008831903135419594</v>
       </c>
       <c r="J25">
-        <v>0.7656214110819519</v>
+        <v>0.7074091278082619</v>
       </c>
       <c r="K25">
-        <v>1.175214312730091</v>
+        <v>0.9651732315353598</v>
       </c>
       <c r="L25">
-        <v>0.1677536578009438</v>
+        <v>0.4135474881078594</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3270041793441578</v>
       </c>
       <c r="N25">
-        <v>0.1355789300985961</v>
+        <v>0.1431879162554566</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0.1647935285202351</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>9.00683856119241</v>
       </c>
-      <c r="Q25">
-        <v>4.322181902306909</v>
+      <c r="S25">
+        <v>3.731322529668262</v>
       </c>
     </row>
   </sheetData>
